--- a/DataFiles/PcTestCaseCDMs/CARA_PcMethod_Test_Conjunctions.xlsx
+++ b/DataFiles/PcTestCaseCDMs/CARA_PcMethod_Test_Conjunctions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LBaars\SDK\DataFiles\PcTestCaseCDMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\CARA\analysis\SDK\DataFiles\PcTestCaseCDMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F62E52-C853-435B-B0C2-D625061499BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A4E1A3-3EA9-4CEC-AF5B-D4B5459253E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,15 +528,10 @@
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -566,17 +561,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,182 +854,183 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" customWidth="1"/>
-    <col min="26" max="26" width="17" customWidth="1"/>
-    <col min="27" max="27" width="14" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="56.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" customWidth="1"/>
+    <col min="26" max="26" width="15.21875" customWidth="1"/>
+    <col min="27" max="27" width="12.77734375" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="3">
         <v>1274.55401823893</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="3">
         <v>2924.9150985466299</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="3">
         <v>22.2150794757478</v>
       </c>
-      <c r="I2" s="3">
-        <v>6.1147932356778103E-4</v>
-      </c>
-      <c r="J2" s="3">
-        <v>6.1209752200241301E-4</v>
-      </c>
-      <c r="K2" s="3">
-        <v>6.12627091535886E-4</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="I2" s="1">
+        <v>6.114793230828587E-4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6.1209753075125483E-4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.1262709136015309E-4</v>
+      </c>
+      <c r="L2" s="1">
         <v>6.1775000000000003E-4</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="1">
         <v>6.0563442748680905E-4</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="1">
         <v>6.3004685728014302E-4</v>
       </c>
       <c r="O2">
@@ -1057,16 +1048,16 @@
       <c r="S2">
         <v>9884</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="2">
         <v>16000000</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="1">
         <v>5.9967454041280903E-4</v>
       </c>
       <c r="V2">
         <v>20580</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X2">
@@ -1084,7 +1075,7 @@
       <c r="AB2">
         <v>22015</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD2">
@@ -1100,47 +1091,47 @@
         <v>20.71</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="3">
         <v>107.54982024146101</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="3">
         <v>11073.324873821401</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="3">
         <v>94.972341726405702</v>
       </c>
-      <c r="I3" s="3">
-        <v>2.1173811560118199E-2</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2.11737993064996E-2</v>
-      </c>
-      <c r="K3" s="3">
-        <v>2.1191592653122999E-2</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="I3" s="1">
+        <v>2.1173811560368256E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.1173759216088561E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.1191592654205112E-2</v>
+      </c>
+      <c r="L3" s="1">
         <v>2.1476086956521701E-2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>2.1059094540569999E-2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="1">
         <v>2.1899121776879998E-2</v>
       </c>
       <c r="O3">
@@ -1158,16 +1149,16 @@
       <c r="S3">
         <v>9879</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="2">
         <v>460000</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="1">
         <v>2.11921953173589E-2</v>
       </c>
       <c r="V3">
         <v>25994</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X3">
@@ -1185,7 +1176,7 @@
       <c r="AB3">
         <v>37558</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD3">
@@ -1201,47 +1192,47 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>193.409953833484</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>10829.631182666501</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>90.945020293724397</v>
       </c>
-      <c r="I4" s="3">
-        <v>2.3236849651064001E-3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>2.3236529235971699E-3</v>
-      </c>
-      <c r="K4" s="3">
-        <v>2.3254865564446298E-3</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="I4" s="1">
+        <v>2.3236849651128103E-3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.3236532874563588E-3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.3254865565206046E-3</v>
+      </c>
+      <c r="L4" s="1">
         <v>2.2647727272727299E-3</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <v>2.2205706709919801E-3</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <v>2.3096318209279701E-3</v>
       </c>
       <c r="O4">
@@ -1259,16 +1250,16 @@
       <c r="S4">
         <v>9965</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="2">
         <v>4400000</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="1">
         <v>2.3256224929977202E-3</v>
       </c>
       <c r="V4">
         <v>28485</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X4">
@@ -1286,7 +1277,7 @@
       <c r="AB4">
         <v>44777</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC4" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AD4">
@@ -1302,47 +1293,47 @@
         <v>97.61</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E5">
         <v>14.8</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>197.11984787255801</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <v>8870.9195907827907</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>72.383334838224499</v>
       </c>
-      <c r="I5" s="3">
-        <v>1.7607076292712599E-3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1.7607382173327299E-3</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1.7622342015639601E-3</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="I5" s="1">
+        <v>1.7607076292740992E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.7607372715931643E-3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.7622342015356227E-3</v>
+      </c>
+      <c r="L5" s="1">
         <v>1.7550877192982501E-3</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <v>1.72089128847415E-3</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <v>1.78979185246552E-3</v>
       </c>
       <c r="O5">
@@ -1360,16 +1351,16 @@
       <c r="S5">
         <v>10004</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="2">
         <v>5700000</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="1">
         <v>1.7620917489446801E-3</v>
       </c>
       <c r="V5">
         <v>29108</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="4" t="s">
         <v>152</v>
       </c>
       <c r="X5">
@@ -1387,7 +1378,7 @@
       <c r="AB5">
         <v>34995</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AC5" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD5">
@@ -1403,47 +1394,47 @@
         <v>73.83</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <v>502.06908273736201</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <v>14508.1840893963</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>144.12776086454801</v>
       </c>
-      <c r="I6" s="3">
-        <v>6.5817682550914003E-3</v>
-      </c>
-      <c r="J6" s="3">
-        <v>6.5819183638029704E-3</v>
-      </c>
-      <c r="K6" s="3">
-        <v>6.5873701700858104E-3</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="I6" s="1">
+        <v>6.5817682550912563E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6.581769561402038E-3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.5873701700900041E-3</v>
+      </c>
+      <c r="L6" s="1">
         <v>6.6273333333333297E-3</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <v>6.4981074277359304E-3</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <v>6.7584696771330298E-3</v>
       </c>
       <c r="O6">
@@ -1461,16 +1452,16 @@
       <c r="S6">
         <v>9941</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="2">
         <v>1500000</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="1">
         <v>6.5275264592510197E-3</v>
       </c>
       <c r="V6">
         <v>32060</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X6">
@@ -1488,7 +1479,7 @@
       <c r="AB6">
         <v>44396</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AC6" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD6">
@@ -1504,47 +1495,47 @@
         <v>97.64</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>74.435517252313602</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <v>2221.62909115211</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>17.191140600646801</v>
       </c>
-      <c r="I7" s="3">
-        <v>4.5388484528255599E-3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>4.5388399792531398E-3</v>
-      </c>
-      <c r="K7" s="3">
-        <v>4.5424150496054796E-3</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="I7" s="1">
+        <v>4.5388484529517558E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4.5388537779610782E-3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4.5424150498179156E-3</v>
+      </c>
+      <c r="L7" s="1">
         <v>4.5095454545454501E-3</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <v>4.4214345192682596E-3</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="1">
         <v>4.5989645527155102E-3</v>
       </c>
       <c r="O7">
@@ -1562,16 +1553,16 @@
       <c r="S7">
         <v>9921</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="2">
         <v>2200000</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="1">
         <v>4.5425232686028402E-3</v>
       </c>
       <c r="V7">
         <v>33591</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X7">
@@ -1589,7 +1580,7 @@
       <c r="AB7">
         <v>42216</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC7" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD7">
@@ -1605,47 +1596,47 @@
         <v>82.89</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>99.431768007459496</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <v>13922.0179856167</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>138.46823094682199</v>
       </c>
-      <c r="I8" s="3">
-        <v>1.04918208093728E-2</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1.04918022619837E-2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1.05007895427413E-2</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="I8" s="1">
+        <v>1.0491820807529178E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.049180313659628E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.050078954279955E-2</v>
+      </c>
+      <c r="L8" s="1">
         <v>1.03863157894737E-2</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <v>1.01834148725335E-2</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="1">
         <v>1.05922102608979E-2</v>
       </c>
       <c r="O8">
@@ -1663,16 +1654,16 @@
       <c r="S8">
         <v>9867</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="2">
         <v>950000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="1">
         <v>1.0493579328095999E-2</v>
       </c>
       <c r="V8">
         <v>37849</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X8">
@@ -1690,7 +1681,7 @@
       <c r="AB8">
         <v>13512</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD8">
@@ -1706,47 +1697,47 @@
         <v>65.48</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>147.814904018254</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <v>1390.24293269392</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <v>10.7348536464402</v>
       </c>
-      <c r="I9" s="3">
-        <v>1.55914399226868E-3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.5591885463835499E-3</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1.5604382961977E-3</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="I9" s="1">
+        <v>1.5591439922686598E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.5591930759917224E-3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.5604382958264744E-3</v>
+      </c>
+      <c r="L9" s="1">
         <v>1.52296875E-3</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="1">
         <v>1.49290480714669E-3</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="1">
         <v>1.5534850956955199E-3</v>
       </c>
       <c r="O9">
@@ -1764,16 +1755,16 @@
       <c r="S9">
         <v>9747</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="2">
         <v>6400000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="1">
         <v>1.5602155781275699E-3</v>
       </c>
       <c r="V9">
         <v>38771</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="4" t="s">
         <v>154</v>
       </c>
       <c r="X9">
@@ -1791,7 +1782,7 @@
       <c r="AB9">
         <v>30802</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AC9" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AD9">
@@ -1807,47 +1798,47 @@
         <v>98.88</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>448.30625764540002</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <v>3931.80057526359</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <v>30.261069940998201</v>
       </c>
-      <c r="I10" s="3">
-        <v>7.8614353511183798E-4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>7.8617893925369599E-4</v>
-      </c>
-      <c r="K10" s="3">
-        <v>7.8684043231049797E-4</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="I10" s="1">
+        <v>7.861435351036993E-4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7.8617971351962221E-4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7.8684043236151727E-4</v>
+      </c>
+      <c r="L10" s="1">
         <v>7.8807692307692303E-4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>7.7289552241397103E-4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="1">
         <v>8.0348135400747501E-4</v>
       </c>
       <c r="O10">
@@ -1865,16 +1856,16 @@
       <c r="S10">
         <v>10245</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="2">
         <v>13000000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="1">
         <v>7.8746449597598899E-4</v>
       </c>
       <c r="V10">
         <v>40059</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X10">
@@ -1892,7 +1883,7 @@
       <c r="AB10">
         <v>35921</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AC10" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD10">
@@ -1908,47 +1899,47 @@
         <v>86.41</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E11">
         <v>20</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>534.15265451827997</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <v>14675.2263302051</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="3">
         <v>144.35744773987199</v>
       </c>
-      <c r="I11" s="3">
-        <v>2.4518459605254602E-3</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2.4520347771931502E-3</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2.4540715173721498E-3</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="I11" s="1">
+        <v>2.4518459608000578E-3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.4520277235488448E-3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.4540715173742441E-3</v>
+      </c>
+      <c r="L11" s="1">
         <v>2.4402500000000001E-3</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="1">
         <v>2.3921345559061299E-3</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="1">
         <v>2.4890879560724799E-3</v>
       </c>
       <c r="O11">
@@ -1966,16 +1957,16 @@
       <c r="S11">
         <v>9761</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="2">
         <v>4000000</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="1">
         <v>2.42923295071814E-3</v>
       </c>
       <c r="V11">
         <v>41848</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X11">
@@ -1993,7 +1984,7 @@
       <c r="AB11">
         <v>44431</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AC11" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD11">
@@ -2009,47 +2000,47 @@
         <v>51.63</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>114</v>
       </c>
       <c r="E12">
         <v>3.1</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>1574.7003654208199</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <v>12668.087491673699</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>112.436340078745</v>
       </c>
-      <c r="I12" s="3">
-        <v>1.2941853594236E-4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1.29403439374586E-4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1.2950561282396001E-4</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="I12" s="1">
+        <v>1.2941853594235998E-4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.2940349769996408E-4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.29505612815583E-4</v>
+      </c>
+      <c r="L12" s="1">
         <v>1.31269230769231E-4</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="1">
         <v>1.2873893085156999E-4</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="1">
         <v>1.3383675130366999E-4</v>
       </c>
       <c r="O12">
@@ -2067,16 +2058,16 @@
       <c r="S12">
         <v>10239</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="2">
         <v>78000000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="1">
         <v>1.2609306506170201E-4</v>
       </c>
       <c r="V12">
         <v>43477</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X12">
@@ -2094,7 +2085,7 @@
       <c r="AB12">
         <v>46952</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AC12" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD12">
@@ -2110,47 +2101,47 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E13">
         <v>4.5</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="3">
         <v>1939.0417277507499</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <v>13335.4585098192</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="3">
         <v>123.25065615416599</v>
       </c>
-      <c r="I13" s="3">
-        <v>1.6012322780296299E-4</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1.60078627811052E-4</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.6020385312414201E-4</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="I13" s="1">
+        <v>1.601232278031833E-4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.6007861076890246E-4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.6020385312449925E-4</v>
+      </c>
+      <c r="L13" s="1">
         <v>1.6177419354838701E-4</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="1">
         <v>1.5862377336064401E-4</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="1">
         <v>1.6497143842961301E-4</v>
       </c>
       <c r="O13">
@@ -2168,16 +2159,16 @@
       <c r="S13">
         <v>10030</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="2">
         <v>62000000</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="1">
         <v>1.6619254370772401E-4</v>
       </c>
       <c r="V13">
         <v>44628</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X13">
@@ -2195,7 +2186,7 @@
       <c r="AB13">
         <v>27127</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AC13" s="4" t="s">
         <v>155</v>
       </c>
       <c r="AD13">
@@ -2211,47 +2202,47 @@
         <v>97.66</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>116</v>
       </c>
       <c r="E14">
         <v>17.3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>466.87824404368303</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <v>494.99608541925699</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <v>3.7643498061505198</v>
       </c>
-      <c r="I14" s="3">
-        <v>1.03417400827533E-5</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1.0342366182134799E-5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1.03507683723394E-5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="I14" s="1">
+        <v>1.0341740082728513E-5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.0342857073004231E-5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.0350768372283169E-5</v>
+      </c>
+      <c r="L14" s="1">
         <v>1.04916666666667E-5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="1">
         <v>1.0287759359971301E-5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="1">
         <v>1.0698598961548601E-5</v>
       </c>
       <c r="O14">
@@ -2269,16 +2260,16 @@
       <c r="S14">
         <v>10072</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="2">
         <v>960000000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="1">
         <v>1.0350264457593E-5</v>
       </c>
       <c r="V14">
         <v>27424</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X14">
@@ -2296,7 +2287,7 @@
       <c r="AB14">
         <v>48164</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AC14" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD14">
@@ -2312,47 +2303,47 @@
         <v>98.41</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E15">
         <v>6</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>21.254849038371699</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <v>122.793605775842</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>0.94321677724680197</v>
       </c>
-      <c r="I15" s="3">
-        <v>4.9977602651051899E-3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4.9977435435271597E-3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5.0020694813445298E-3</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="I15" s="1">
+        <v>4.9977602651036209E-3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4.9979198087156621E-3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5.0020694811676114E-3</v>
+      </c>
+      <c r="L15" s="1">
         <v>4.993E-3</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="1">
         <v>4.8957824868373096E-3</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="1">
         <v>5.0916550735793696E-3</v>
       </c>
       <c r="O15">
@@ -2370,16 +2361,16 @@
       <c r="S15">
         <v>9986</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="2">
         <v>2000000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="1">
         <v>5.0020779282637E-3</v>
       </c>
       <c r="V15">
         <v>28654</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X15">
@@ -2397,7 +2388,7 @@
       <c r="AB15">
         <v>41835</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AC15" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD15">
@@ -2413,47 +2404,47 @@
         <v>98.93</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>2817.6550262726901</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <v>463.42122972047702</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>3.5853300394607301</v>
       </c>
-      <c r="I16" s="3">
-        <v>2.8440011794900101E-5</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2.8977658271746801E-5</v>
-      </c>
-      <c r="K16" s="3">
-        <v>2.9002543009440799E-5</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="I16" s="1">
+        <v>2.8440011794889381E-5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2.8977758951957277E-5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.9002543011130321E-5</v>
+      </c>
+      <c r="L16" s="1">
         <v>2.9288235294117599E-5</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="1">
         <v>2.8715785646631199E-5</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="1">
         <v>2.9869225927075301E-5</v>
       </c>
       <c r="O16">
@@ -2471,16 +2462,16 @@
       <c r="S16">
         <v>9958</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16" s="2">
         <v>340000000</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="1">
         <v>2.8609841039763E-5</v>
       </c>
       <c r="V16">
         <v>28654</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X16">
@@ -2498,7 +2489,7 @@
       <c r="AB16">
         <v>42397</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AC16" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD16">
@@ -2514,47 +2505,47 @@
         <v>98.76</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E17">
         <v>20</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="3">
         <v>7859.8258610154899</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="3">
         <v>228.68009294423101</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="3">
         <v>1.7241310986973899</v>
       </c>
-      <c r="I17" s="3">
-        <v>2.3450152070255599E-5</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2.3664890574870901E-5</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2.3684421500053501E-5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="I17" s="1">
+        <v>2.3450152070275718E-5</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.3664624439586263E-5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.3684421500037458E-5</v>
+      </c>
+      <c r="L17" s="1">
         <v>2.3876744186046499E-5</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="1">
         <v>2.3417105296068298E-5</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="1">
         <v>2.43431361416222E-5</v>
       </c>
       <c r="O17">
@@ -2572,16 +2563,16 @@
       <c r="S17">
         <v>10267</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="2">
         <v>430000000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="1">
         <v>2.3764658687213901E-5</v>
       </c>
       <c r="V17">
         <v>32060</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X17">
@@ -2599,7 +2590,7 @@
       <c r="AB17">
         <v>53480</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AC17" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD17">
@@ -2615,47 +2606,47 @@
         <v>97.66</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E18">
         <v>20</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="3">
         <v>404.97941455707303</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="3">
         <v>136.82962277753501</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="3">
         <v>1.01828435696889</v>
       </c>
-      <c r="I18" s="3">
-        <v>1.0724126088228799E-4</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1.07148330729124E-4</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1.07226464682837E-4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="I18" s="1">
+        <v>1.0724126088444668E-4</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.0713860216307859E-4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.0722646468728138E-4</v>
+      </c>
+      <c r="L18" s="1">
         <v>1.0680645161290301E-4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="1">
         <v>1.04716345519583E-4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="1">
         <v>1.08927778109004E-4</v>
       </c>
       <c r="O18">
@@ -2673,16 +2664,16 @@
       <c r="S18">
         <v>9933</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="2">
         <v>93000000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="1">
         <v>1.0726794103756E-4</v>
       </c>
       <c r="V18">
         <v>40115</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X18">
@@ -2700,7 +2691,7 @@
       <c r="AB18">
         <v>30660</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AC18" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AD18">
@@ -2716,47 +2707,47 @@
         <v>98.19</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>2518.0899408036698</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="3">
         <v>121.508627446869</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="3">
         <v>0.91804993873422003</v>
       </c>
-      <c r="I19" s="3">
-        <v>1.35226960198825E-5</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1.35430034544206E-5</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1.3553751968790999E-5</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="I19" s="1">
+        <v>1.3522696019880811E-5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.3543120112005495E-5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.3553751968724241E-5</v>
+      </c>
+      <c r="L19" s="1">
         <v>1.33972972972973E-5</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="1">
         <v>1.3134862419905601E-5</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="1">
         <v>1.3663656565175699E-5</v>
       </c>
       <c r="O19">
@@ -2774,16 +2765,16 @@
       <c r="S19">
         <v>9914</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="2">
         <v>740000000</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="1">
         <v>1.3524827812863499E-5</v>
       </c>
       <c r="V19">
         <v>48901</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X19">
@@ -2801,7 +2792,7 @@
       <c r="AB19">
         <v>48954</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AC19" s="4" t="s">
         <v>156</v>
       </c>
       <c r="AD19">
@@ -2817,47 +2808,47 @@
         <v>97.61</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E20">
         <v>15</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>4503.4718097885898</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <v>14923.8525602268</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <v>168.05383866850201</v>
       </c>
-      <c r="I20" s="3">
-        <v>1.08249481025766E-4</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1.0804129021696901E-4</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1.0812739997552001E-4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="I20" s="1">
+        <v>1.0824948102737557E-4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.0804152636958635E-4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.0812739998130439E-4</v>
+      </c>
+      <c r="L20" s="1">
         <v>1.08760869565217E-4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="1">
         <v>1.06640259460641E-4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="1">
         <v>1.10913038912666E-4</v>
       </c>
       <c r="O20">
@@ -2875,16 +2866,16 @@
       <c r="S20">
         <v>10006</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="2">
         <v>92000000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="1">
         <v>4.0983120500140699E-20</v>
       </c>
       <c r="V20">
         <v>25994</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X20">
@@ -2902,7 +2893,7 @@
       <c r="AB20">
         <v>26980</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AC20" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD20">
@@ -2918,47 +2909,47 @@
         <v>71.11</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E21">
         <v>17.3</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>9649.6982186083005</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <v>14838.336611516899</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="3">
         <v>162.75950385039599</v>
       </c>
-      <c r="I21" s="3">
-        <v>2.5562908890876398E-4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2.5470377486635202E-4</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2.5490192124986202E-4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="I21" s="1">
+        <v>2.5562908890735815E-4</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2.5470318721833627E-4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2.5490192125936489E-4</v>
+      </c>
+      <c r="L21" s="1">
         <v>2.5457499999999999E-4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="1">
         <v>2.49654787680344E-4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="1">
         <v>2.5956777529384702E-4</v>
       </c>
       <c r="O21">
@@ -2976,16 +2967,16 @@
       <c r="S21">
         <v>10183</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="2">
         <v>40000000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="1">
         <v>9.0107686496439497E-16</v>
       </c>
       <c r="V21">
         <v>27424</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X21">
@@ -3003,7 +2994,7 @@
       <c r="AB21">
         <v>41740</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AC21" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD21">
@@ -3019,47 +3010,47 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="3">
         <v>17288.185348829102</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="3">
         <v>14912.7596598446</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="3">
         <v>156.060120915607</v>
       </c>
-      <c r="I22" s="3">
-        <v>1.76274770517423E-4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1.77142716593131E-4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1.7728101005962601E-4</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="I22" s="1">
+        <v>1.7627477047939155E-4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.7714243522064214E-4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.7728101017819504E-4</v>
+      </c>
+      <c r="L22" s="1">
         <v>1.7552631578947401E-4</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="1">
         <v>1.72103860011602E-4</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="1">
         <v>1.78999702503206E-4</v>
       </c>
       <c r="O22">
@@ -3077,16 +3068,16 @@
       <c r="S22">
         <v>10005</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="2">
         <v>57000000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="1">
         <v>3.16181718105645E-11</v>
       </c>
       <c r="V22">
         <v>32060</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X22">
@@ -3104,7 +3095,7 @@
       <c r="AB22">
         <v>35644</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AC22" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD22">
@@ -3120,47 +3111,47 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E23">
         <v>15</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="3">
         <v>24.533119647923201</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="3">
         <v>4489.2584950391401</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="3">
         <v>34.792597671529101</v>
       </c>
-      <c r="I23" s="3">
-        <v>1.21612398076696E-3</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1.21612334254864E-3</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1.2171318976840499E-3</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="I23" s="1">
+        <v>1.2161239807627223E-3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.2161236996322241E-3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.2171318972798205E-3</v>
+      </c>
+      <c r="L23" s="1">
         <v>1.2074390243902401E-3</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="1">
         <v>1.1837852908430299E-3</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="1">
         <v>1.23144606683266E-3</v>
       </c>
       <c r="O23">
@@ -3178,16 +3169,16 @@
       <c r="S23">
         <v>9901</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="2">
         <v>8200000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="1">
         <v>1.21713526670285E-3</v>
       </c>
       <c r="V23">
         <v>25994</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X23">
@@ -3205,7 +3196,7 @@
       <c r="AB23">
         <v>26132</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AC23" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AD23">
@@ -3221,47 +3212,47 @@
         <v>98.69</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E24">
         <v>17.3</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="3">
         <v>72.642359106503804</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="3">
         <v>13411.657330824301</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="3">
         <v>126.263320365231</v>
       </c>
-      <c r="I24" s="3">
-        <v>3.7105166669275703E-5</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3.7105237808806201E-5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3.7135049551228798E-5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="I24" s="1">
+        <v>3.7105166669346867E-5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3.7105869349279052E-5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3.7135049557175796E-5</v>
+      </c>
+      <c r="L24" s="1">
         <v>3.6814814814814799E-5</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="1">
         <v>3.6094609928877197E-5</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="1">
         <v>3.7545774886775799E-5</v>
       </c>
       <c r="O24">
@@ -3279,16 +3270,16 @@
       <c r="S24">
         <v>9940</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="2">
         <v>270000000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="1">
         <v>3.7135113498505702E-5</v>
       </c>
       <c r="V24">
         <v>27424</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X24">
@@ -3306,7 +3297,7 @@
       <c r="AB24">
         <v>31201</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AC24" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AD24">
@@ -3322,47 +3313,47 @@
         <v>99.05</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E25">
         <v>12</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="3">
         <v>98.752351602447305</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="3">
         <v>12080.0899464584</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="3">
         <v>108.508877493645</v>
       </c>
-      <c r="I25" s="3">
-        <v>1.5382182693489201E-4</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1.5382238356556201E-4</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1.53949051598533E-4</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="I25" s="1">
+        <v>1.5382182694238661E-4</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.53822314556309E-4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.5394905160723084E-4</v>
+      </c>
+      <c r="L25" s="1">
         <v>1.51476923076923E-4</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="1">
         <v>1.48499717642343E-4</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="1">
         <v>1.5449879437839199E-4</v>
       </c>
       <c r="O25">
@@ -3380,16 +3371,16 @@
       <c r="S25">
         <v>9846</v>
       </c>
-      <c r="T25" s="5">
+      <c r="T25" s="2">
         <v>65000000</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="1">
         <v>1.53952145721854E-4</v>
       </c>
       <c r="V25">
         <v>54234</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X25">
@@ -3407,7 +3398,7 @@
       <c r="AB25">
         <v>28343</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AC25" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD25">
@@ -3423,47 +3414,47 @@
         <v>98.92</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E26">
         <v>20</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="3">
         <v>7243.3603824807997</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="3">
         <v>53.584985394302798</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="3">
         <v>0.39007027230277602</v>
       </c>
-      <c r="I26" s="3">
-        <v>4.4545372776656898E-23</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1.5199922623584599E-4</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1.5211147152589501E-4</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="I26" s="1">
+        <v>4.454537276414265E-23</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.5200790229714784E-4</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1.5211147154089839E-4</v>
+      </c>
+      <c r="L26" s="1">
         <v>1.5178787878787899E-4</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="1">
         <v>1.4883015826960399E-4</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="1">
         <v>1.54789587105932E-4</v>
       </c>
       <c r="O26">
@@ -3481,16 +3472,16 @@
       <c r="S26">
         <v>10018</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="2">
         <v>66000000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="1">
         <v>1.2735707029955199E-4</v>
       </c>
       <c r="V26">
         <v>35946</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X26">
@@ -3508,7 +3499,7 @@
       <c r="AB26">
         <v>30648</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AC26" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AD26">
@@ -3524,47 +3515,47 @@
         <v>98.67</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E27">
         <v>20</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="3">
         <v>8883.9475553507691</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="3">
         <v>15162.1158470928</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="3">
         <v>174.22450943162201</v>
       </c>
-      <c r="I27" s="3">
-        <v>9.4082549652167E-5</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1.4420755494513201E-4</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1.44336270518999E-4</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="I27" s="1">
+        <v>9.4082549800875113E-5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.4421123334270588E-4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1.4433627049810933E-4</v>
+      </c>
+      <c r="L27" s="1">
         <v>1.44957142857143E-4</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="1">
         <v>1.4215044108820601E-4</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="1">
         <v>1.4780531851575599E-4</v>
       </c>
       <c r="O27">
@@ -3582,16 +3573,16 @@
       <c r="S27">
         <v>10147</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27" s="2">
         <v>70000000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="1">
         <v>1.8286782615783199E-28</v>
       </c>
       <c r="V27">
         <v>32060</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="W27" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X27">
@@ -3609,7 +3600,7 @@
       <c r="AB27">
         <v>49574</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AC27" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD27">
@@ -3625,47 +3616,47 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="3">
         <v>12303.3315400506</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="3">
         <v>2223.7795194270798</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="3">
         <v>16.174781602741199</v>
       </c>
-      <c r="I28" s="3">
-        <v>1.8622335334547401E-5</v>
-      </c>
-      <c r="J28" s="3">
-        <v>4.7303491262171802E-5</v>
-      </c>
-      <c r="K28" s="3">
-        <v>4.7339023497559098E-5</v>
-      </c>
-      <c r="L28" s="3">
+      <c r="I28" s="1">
+        <v>1.8622335333482332E-5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4.7301511182858345E-5</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4.733902350118532E-5</v>
+      </c>
+      <c r="L28" s="1">
         <v>4.78952380952381E-5</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="1">
         <v>4.6963758612454997E-5</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="1">
         <v>4.8840545093949802E-5</v>
       </c>
       <c r="O28">
@@ -3683,16 +3674,16 @@
       <c r="S28">
         <v>10058</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28" s="2">
         <v>210000000</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="1">
         <v>2.6239136889865699E-5</v>
       </c>
       <c r="V28">
         <v>20580</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X28">
@@ -3710,7 +3701,7 @@
       <c r="AB28">
         <v>2017</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AC28" s="4" t="s">
         <v>152</v>
       </c>
       <c r="AD28">
@@ -3726,47 +3717,47 @@
         <v>34.07</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E29">
         <v>14.8</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="3">
         <v>17100.732189396302</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="3">
         <v>586.92237506108597</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="3">
         <v>4.4732486920470702</v>
       </c>
-      <c r="I29" s="3">
-        <v>4.5403116972203801E-6</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1.6605133699710399E-5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1.6618182396762799E-5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="I29" s="1">
+        <v>4.5403116973645731E-6</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1.6605146116944652E-5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1.6618182396425853E-5</v>
+      </c>
+      <c r="L29" s="1">
         <v>1.6483333333333301E-5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="1">
         <v>1.61600580661086E-5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="1">
         <v>1.68114486721111E-5</v>
       </c>
       <c r="O29">
@@ -3784,16 +3775,16 @@
       <c r="S29">
         <v>9890</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29" s="2">
         <v>600000000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="1">
         <v>1.3787488027671901E-5</v>
       </c>
       <c r="V29">
         <v>29108</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="4" t="s">
         <v>152</v>
       </c>
       <c r="X29">
@@ -3811,7 +3802,7 @@
       <c r="AB29">
         <v>40337</v>
       </c>
-      <c r="AC29" s="1" t="s">
+      <c r="AC29" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AD29">
@@ -3827,47 +3818,47 @@
         <v>98.51</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="3">
         <v>21577.750612347001</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="3">
         <v>3149.8753397241899</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="3">
         <v>22.132266059589099</v>
       </c>
-      <c r="I30" s="3">
-        <v>2.9182522384109702E-7</v>
-      </c>
-      <c r="J30" s="3">
-        <v>3.45536388017759E-5</v>
-      </c>
-      <c r="K30" s="3">
-        <v>3.4582652223733601E-5</v>
-      </c>
-      <c r="L30" s="3">
+      <c r="I30" s="1">
+        <v>2.9182522376585466E-7</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3.4553142045899321E-5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3.4582652203187895E-5</v>
+      </c>
+      <c r="L30" s="1">
         <v>3.4903448275862097E-5</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="1">
         <v>3.42267713419441E-5</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="1">
         <v>3.5590138392330801E-5</v>
       </c>
       <c r="O30">
@@ -3885,16 +3876,16 @@
       <c r="S30">
         <v>10122</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30" s="2">
         <v>290000000</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30" s="1">
         <v>1.2615858871579101E-5</v>
       </c>
       <c r="V30">
         <v>39574</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="W30" s="4" t="s">
         <v>157</v>
       </c>
       <c r="X30">
@@ -3912,7 +3903,7 @@
       <c r="AB30">
         <v>45957</v>
       </c>
-      <c r="AC30" s="1" t="s">
+      <c r="AC30" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD30">
@@ -3928,47 +3919,47 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E31">
         <v>26</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="3">
         <v>88527.0417775284</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="3">
         <v>10634.977761095</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="3">
         <v>75.6864723802491</v>
       </c>
-      <c r="I31" s="3">
-        <v>5.6687838266324698E-7</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1.7197523316074601E-6</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1.72122859549475E-6</v>
-      </c>
-      <c r="L31" s="3">
+      <c r="I31" s="1">
+        <v>5.6687838266322718E-7</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.7197739495395736E-6</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1.7212285954918261E-6</v>
+      </c>
+      <c r="L31" s="1">
         <v>1.7002499999999999E-6</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="1">
         <v>1.66007862894645E-6</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="1">
         <v>1.74114790803293E-6</v>
       </c>
       <c r="O31">
@@ -3986,16 +3977,16 @@
       <c r="S31">
         <v>6801</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U31" s="1">
         <v>4.4709296536782198E-8</v>
       </c>
       <c r="V31">
         <v>30580</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="W31" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X31">
@@ -4013,7 +4004,7 @@
       <c r="AB31">
         <v>19175</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AC31" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD31">
@@ -4029,47 +4020,47 @@
         <v>82.36</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E32">
         <v>7</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="3">
         <v>36099.379503184697</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="3">
         <v>15115.8868722551</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="3">
         <v>165.95522198228599</v>
       </c>
-      <c r="I32" s="3">
-        <v>1.1088425808910001E-6</v>
-      </c>
-      <c r="J32" s="3">
-        <v>3.2648307451069401E-6</v>
-      </c>
-      <c r="K32" s="3">
-        <v>3.26754106014685E-6</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="I32" s="1">
+        <v>1.1088425815007564E-6</v>
+      </c>
+      <c r="J32" s="1">
+        <v>3.2647329562817799E-6</v>
+      </c>
+      <c r="K32" s="1">
+        <v>3.2675410665606885E-6</v>
+      </c>
+      <c r="L32" s="1">
         <v>3.21645161290323E-6</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="1">
         <v>3.1536248450788499E-6</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="1">
         <v>3.2802151807270401E-6</v>
       </c>
       <c r="O32">
@@ -4087,16 +4078,16 @@
       <c r="S32">
         <v>9971</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="2">
         <v>3100000000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="1">
         <v>7.2239534227273205E-16</v>
       </c>
       <c r="V32">
         <v>43613</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="W32" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X32">
@@ -4114,7 +4105,7 @@
       <c r="AB32">
         <v>48526</v>
       </c>
-      <c r="AC32" s="1" t="s">
+      <c r="AC32" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AD32">
@@ -4130,47 +4121,47 @@
         <v>98.18</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E33">
         <v>7</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="3">
         <v>18915.942620907699</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="3">
         <v>15216.971740883</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="3">
         <v>174.385819365157</v>
       </c>
-      <c r="I33" s="3">
-        <v>9.7266417409348393E-7</v>
-      </c>
-      <c r="J33" s="3">
-        <v>3.3117762920446901E-6</v>
-      </c>
-      <c r="K33" s="3">
-        <v>3.31460958036023E-6</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="I33" s="1">
+        <v>9.7266417378986518E-7</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3.3120913050423315E-6</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3.314609580397408E-6</v>
+      </c>
+      <c r="L33" s="1">
         <v>3.2480000000000001E-6</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="1">
         <v>3.1838258849006999E-6</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="1">
         <v>3.3131421794242698E-6</v>
       </c>
       <c r="O33">
@@ -4188,16 +4179,16 @@
       <c r="S33">
         <v>9744</v>
       </c>
-      <c r="T33" s="5">
+      <c r="T33" s="2">
         <v>3000000000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="1">
         <v>1.25627606369437E-13</v>
       </c>
       <c r="V33">
         <v>43613</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="W33" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X33">
@@ -4215,7 +4206,7 @@
       <c r="AB33">
         <v>50564</v>
       </c>
-      <c r="AC33" s="1" t="s">
+      <c r="AC33" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD33">
@@ -4231,47 +4222,47 @@
         <v>82.49</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E34">
         <v>7</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="3">
         <v>14533.5852035506</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="3">
         <v>15233.1960337086</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="3">
         <v>174.56722971013599</v>
       </c>
-      <c r="I34" s="3">
-        <v>2.8924673035025201E-7</v>
-      </c>
-      <c r="J34" s="3">
-        <v>1.4205385896029201E-6</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1.42178207601146E-6</v>
-      </c>
-      <c r="L34" s="3">
+      <c r="I34" s="1">
+        <v>2.8924673046060929E-7</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1.420596288855526E-6</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1.4217820747509373E-6</v>
+      </c>
+      <c r="L34" s="1">
         <v>1.4407499999999999E-6</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="1">
         <v>1.40378994046036E-6</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="1">
         <v>1.4784368519512901E-6</v>
       </c>
       <c r="O34">
@@ -4289,16 +4280,16 @@
       <c r="S34">
         <v>5763</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U34" s="3">
+      <c r="U34" s="1">
         <v>1.7524439421120499E-171</v>
       </c>
       <c r="V34">
         <v>43613</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="W34" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X34">
@@ -4316,7 +4307,7 @@
       <c r="AB34">
         <v>50666</v>
       </c>
-      <c r="AC34" s="1" t="s">
+      <c r="AC34" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD34">
@@ -4332,47 +4323,47 @@
         <v>82.55</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E35">
         <v>7</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="3">
         <v>11217.6243629616</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="3">
         <v>15223.923233830499</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="3">
         <v>174.57485708158001</v>
       </c>
-      <c r="I35" s="3">
-        <v>5.3697087303983301E-7</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2.2824099983303801E-6</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2.28422622681322E-6</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="I35" s="1">
+        <v>5.3697087334608984E-7</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2.2824179021135955E-6</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2.2842262273768086E-6</v>
+      </c>
+      <c r="L35" s="1">
         <v>2.328E-6</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="1">
         <v>2.28095374829512E-6</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="1">
         <v>2.3757723579476302E-6</v>
       </c>
       <c r="O35">
@@ -4390,16 +4381,16 @@
       <c r="S35">
         <v>9312</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="1">
         <v>7.2276135185865402E-210</v>
       </c>
       <c r="V35">
         <v>43613</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="W35" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X35">
@@ -4417,7 +4408,7 @@
       <c r="AB35">
         <v>50710</v>
       </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AC35" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD35">
@@ -4433,47 +4424,47 @@
         <v>82.54</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="3">
         <v>31182.984751834101</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="3">
         <v>8112.2073668451803</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="3">
         <v>62.645283373059797</v>
       </c>
-      <c r="I36" s="3">
-        <v>2.74410286462634E-7</v>
-      </c>
-      <c r="J36" s="3">
-        <v>1.3662698220349801E-6</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1.36738143709097E-6</v>
-      </c>
-      <c r="L36" s="3">
+      <c r="I36" s="1">
+        <v>2.744102864621819E-7</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.3662898958129609E-6</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1.367381437106992E-6</v>
+      </c>
+      <c r="L36" s="1">
         <v>1.3585E-6</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="1">
         <v>1.3226173237843901E-6</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="1">
         <v>1.3951095644461301E-6</v>
       </c>
       <c r="O36">
@@ -4491,16 +4482,16 @@
       <c r="S36">
         <v>5434</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U36" s="3">
+      <c r="U36" s="1">
         <v>1.6171527264276599E-10</v>
       </c>
       <c r="V36">
         <v>45121</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W36" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X36">
@@ -4518,7 +4509,7 @@
       <c r="AB36">
         <v>14729</v>
       </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AC36" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD36">
@@ -4534,47 +4525,47 @@
         <v>63.3</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E37">
         <v>20</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="3">
         <v>17127.527100739298</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="3">
         <v>1295.7059836880601</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="3">
         <v>9.9251335401423102</v>
       </c>
-      <c r="I37" s="3">
-        <v>1.0528810549153399E-7</v>
-      </c>
-      <c r="J37" s="3">
-        <v>5.6664295141338295E-7</v>
-      </c>
-      <c r="K37" s="3">
-        <v>5.67110637420081E-7</v>
-      </c>
-      <c r="L37" s="3">
+      <c r="I37" s="1">
+        <v>1.0528810551615995E-7</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5.6662319356317163E-7</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5.6711063774664068E-7</v>
+      </c>
+      <c r="L37" s="1">
         <v>5.7975000000000004E-7</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="1">
         <v>5.5639159202022903E-7</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="1">
         <v>6.0383704808603597E-7</v>
       </c>
       <c r="O37">
@@ -4592,16 +4583,16 @@
       <c r="S37">
         <v>2319</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U37" s="3">
+      <c r="U37" s="1">
         <v>6.7343519858232102E-9</v>
       </c>
       <c r="V37">
         <v>29479</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="W37" s="4" t="s">
         <v>157</v>
       </c>
       <c r="X37">
@@ -4619,7 +4610,7 @@
       <c r="AB37">
         <v>42794</v>
       </c>
-      <c r="AC37" s="1" t="s">
+      <c r="AC37" s="4" t="s">
         <v>158</v>
       </c>
       <c r="AD37">
@@ -4635,47 +4626,47 @@
         <v>97.48</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E38">
         <v>6.5</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="3">
         <v>13102.8336616909</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="3">
         <v>320.83769687159997</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="3">
         <v>2.42002705425852</v>
       </c>
-      <c r="I38" s="3">
-        <v>2.5798883476182399E-8</v>
-      </c>
-      <c r="J38" s="3">
-        <v>4.7271415263460902E-7</v>
-      </c>
-      <c r="K38" s="3">
-        <v>4.7307253168813201E-7</v>
-      </c>
-      <c r="L38" s="3">
+      <c r="I38" s="1">
+        <v>2.5798883478593541E-8</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4.7270142160284892E-7</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4.7307253173559254E-7</v>
+      </c>
+      <c r="L38" s="1">
         <v>4.7975000000000004E-7</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="1">
         <v>4.5852293572324698E-7</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="1">
         <v>5.0170620482770403E-7</v>
       </c>
       <c r="O38">
@@ -4693,16 +4684,16 @@
       <c r="S38">
         <v>1919</v>
       </c>
-      <c r="T38" s="5">
+      <c r="T38" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U38" s="1">
         <v>6.8522557811936299E-7</v>
       </c>
       <c r="V38">
         <v>29479</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="W38" s="4" t="s">
         <v>157</v>
       </c>
       <c r="X38">
@@ -4720,7 +4711,7 @@
       <c r="AB38">
         <v>54630</v>
       </c>
-      <c r="AC38" s="1" t="s">
+      <c r="AC38" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AD38">
@@ -4736,47 +4727,47 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E39">
         <v>20</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="3">
         <v>9330.0370903076691</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="3">
         <v>14957.666475408299</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="3">
         <v>177.22836170289901</v>
       </c>
-      <c r="I39" s="3">
-        <v>1.1185075907218899E-8</v>
-      </c>
-      <c r="J39" s="3">
-        <v>2.1175646339043199E-7</v>
-      </c>
-      <c r="K39" s="3">
-        <v>2.1208977451146E-7</v>
-      </c>
-      <c r="L39" s="3">
+      <c r="I39" s="1">
+        <v>1.1185075906514092E-8</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2.1192050691162185E-7</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2.1208977466736348E-7</v>
+      </c>
+      <c r="L39" s="1">
         <v>1.9649999999999999E-7</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="1">
         <v>1.83000916523078E-7</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="1">
         <v>2.1073132956496E-7</v>
       </c>
       <c r="O39">
@@ -4794,16 +4785,16 @@
       <c r="S39">
         <v>786</v>
       </c>
-      <c r="T39" s="5">
+      <c r="T39" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U39" s="3">
+      <c r="U39" s="1">
         <v>0</v>
       </c>
       <c r="V39">
         <v>33331</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="W39" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X39">
@@ -4821,7 +4812,7 @@
       <c r="AB39">
         <v>49571</v>
       </c>
-      <c r="AC39" s="1" t="s">
+      <c r="AC39" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD39">
@@ -4837,47 +4828,47 @@
         <v>81.93</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E40">
         <v>7</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="3">
         <v>38763.897171935903</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="3">
         <v>1229.0040545362799</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="3">
         <v>9.2468368938851597</v>
       </c>
-      <c r="I40" s="3">
-        <v>2.8970047903546601E-8</v>
-      </c>
-      <c r="J40" s="3">
-        <v>1.6990741169348101E-7</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1.7004194258512701E-7</v>
-      </c>
-      <c r="L40" s="3">
+      <c r="I40" s="1">
+        <v>2.8970049248366259E-8</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1.6990842444271989E-7</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1.7004194227970119E-7</v>
+      </c>
+      <c r="L40" s="1">
         <v>1.6850000000000001E-7</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="1">
         <v>1.5601735255555601E-7</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="1">
         <v>1.8171558014735101E-7</v>
       </c>
       <c r="O40">
@@ -4895,16 +4886,16 @@
       <c r="S40">
         <v>674</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U40" s="3">
+      <c r="U40" s="1">
         <v>1.61167666220754E-6</v>
       </c>
       <c r="V40">
         <v>43613</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="W40" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X40">
@@ -4922,7 +4913,7 @@
       <c r="AB40">
         <v>43712</v>
       </c>
-      <c r="AC40" s="1" t="s">
+      <c r="AC40" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AD40">
@@ -4938,47 +4929,47 @@
         <v>97.38</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E41">
         <v>7</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="3">
         <v>15176.9098276079</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="3">
         <v>15202.6282858227</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="3">
         <v>174.37775263025699</v>
       </c>
-      <c r="I41" s="3">
-        <v>2.1767609226137701E-8</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1.10337059495303E-7</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1.1041983734138299E-7</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="I41" s="1">
+        <v>2.1767609219715325E-8</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1.1033326881959081E-7</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1.1041983731801898E-7</v>
+      </c>
+      <c r="L41" s="1">
         <v>1.0125E-7</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="1">
         <v>9.1627790888561806E-8</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="1">
         <v>1.11607824478391E-7</v>
       </c>
       <c r="O41">
@@ -4996,16 +4987,16 @@
       <c r="S41">
         <v>405</v>
       </c>
-      <c r="T41" s="5">
+      <c r="T41" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="1">
         <v>0</v>
       </c>
       <c r="V41">
         <v>43613</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="W41" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X41">
@@ -5023,7 +5014,7 @@
       <c r="AB41">
         <v>49557</v>
       </c>
-      <c r="AC41" s="1" t="s">
+      <c r="AC41" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD41">
@@ -5039,47 +5030,47 @@
         <v>82.56</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E42">
         <v>7</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="3">
         <v>16968.373134571299</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="3">
         <v>15194.144694886299</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="3">
         <v>170.041758415168</v>
       </c>
-      <c r="I42" s="3">
-        <v>1.7717255575585699E-8</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1.04948752902189E-7</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1.0503582525537201E-7</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="I42" s="1">
+        <v>1.7717255121829266E-8</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1.0494861709996066E-7</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1.0503582407335432E-7</v>
+      </c>
+      <c r="L42" s="1">
         <v>1.0075E-7</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="1">
         <v>9.1152173363223305E-8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="1">
         <v>1.11083471494006E-7</v>
       </c>
       <c r="O42">
@@ -5097,16 +5088,16 @@
       <c r="S42">
         <v>403</v>
       </c>
-      <c r="T42" s="5">
+      <c r="T42" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="1">
         <v>3.2548499643964698E-124</v>
       </c>
       <c r="V42">
         <v>43613</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W42" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X42">
@@ -5124,7 +5115,7 @@
       <c r="AB42">
         <v>50929</v>
       </c>
-      <c r="AC42" s="1" t="s">
+      <c r="AC42" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD42">
@@ -5140,47 +5131,47 @@
         <v>82.51</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E43">
         <v>7</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="3">
         <v>44802.760152989802</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="3">
         <v>15087.7693738953</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="3">
         <v>165.62120159049701</v>
       </c>
-      <c r="I43" s="3">
-        <v>1.9603497168307799E-8</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1.8230206802175201E-7</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1.8245500104404299E-7</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="I43" s="1">
+        <v>1.9603497148152683E-8</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.8230260127747992E-7</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1.8245500126865032E-7</v>
+      </c>
+      <c r="L43" s="1">
         <v>1.8225000000000001E-7</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="1">
         <v>1.6925844686416501E-7</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="1">
         <v>1.9597412899822901E-7</v>
       </c>
       <c r="O43">
@@ -5198,16 +5189,16 @@
       <c r="S43">
         <v>729</v>
       </c>
-      <c r="T43" s="5">
+      <c r="T43" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="U43" s="1">
         <v>0</v>
       </c>
       <c r="V43">
         <v>43613</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="W43" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X43">
@@ -5225,7 +5216,7 @@
       <c r="AB43">
         <v>51228</v>
       </c>
-      <c r="AC43" s="1" t="s">
+      <c r="AC43" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD43">
@@ -5241,47 +5232,47 @@
         <v>82.57</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E44">
         <v>7</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="3">
         <v>16737.367527264101</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="3">
         <v>15225.6420625178</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="3">
         <v>174.55671612962499</v>
       </c>
-      <c r="I44" s="3">
-        <v>6.83185240393104E-8</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3.4604056023149502E-7</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3.4631290257627E-7</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="I44" s="1">
+        <v>6.8318524032313498E-8</v>
+      </c>
+      <c r="J44" s="1">
+        <v>3.4603944058215386E-7</v>
+      </c>
+      <c r="K44" s="1">
+        <v>3.4631290245217401E-7</v>
+      </c>
+      <c r="L44" s="1">
         <v>3.5199999999999998E-7</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="1">
         <v>3.33851724457426E-7</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="1">
         <v>3.7087834250410702E-7</v>
       </c>
       <c r="O44">
@@ -5299,16 +5290,16 @@
       <c r="S44">
         <v>1408</v>
       </c>
-      <c r="T44" s="5">
+      <c r="T44" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44" s="1">
         <v>1.8766898476316799E-266</v>
       </c>
       <c r="V44">
         <v>43613</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="W44" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X44">
@@ -5326,7 +5317,7 @@
       <c r="AB44">
         <v>51418</v>
       </c>
-      <c r="AC44" s="1" t="s">
+      <c r="AC44" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD44">
@@ -5342,47 +5333,47 @@
         <v>82.52</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E45">
         <v>7</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="3">
         <v>31139.843092256498</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="3">
         <v>15183.0690242744</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="3">
         <v>170.175818551937</v>
       </c>
-      <c r="I45" s="3">
-        <v>9.4812201896714603E-9</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1.6433807196971301E-7</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1.6447534089528901E-7</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="I45" s="1">
+        <v>9.4812201450143398E-9</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1.6434593491666221E-7</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1.6447534119897314E-7</v>
+      </c>
+      <c r="L45" s="1">
         <v>1.6425000000000001E-7</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="1">
         <v>1.5192882230495399E-7</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="1">
         <v>1.7730422960475399E-7</v>
       </c>
       <c r="O45">
@@ -5400,16 +5391,16 @@
       <c r="S45">
         <v>657</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45" s="1">
         <v>1.3036817761285E-59</v>
       </c>
       <c r="V45">
         <v>43613</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="W45" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X45">
@@ -5427,7 +5418,7 @@
       <c r="AB45">
         <v>52010</v>
       </c>
-      <c r="AC45" s="1" t="s">
+      <c r="AC45" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD45">
@@ -5443,47 +5434,47 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E46">
         <v>7</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="3">
         <v>33412.904574450899</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="3">
         <v>15182.6490711444</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="3">
         <v>170.16255428719199</v>
       </c>
-      <c r="I46" s="3">
-        <v>3.3098303581795502E-8</v>
-      </c>
-      <c r="J46" s="3">
-        <v>7.4441886403538401E-7</v>
-      </c>
-      <c r="K46" s="3">
-        <v>7.4510747943755403E-7</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="I46" s="1">
+        <v>3.3098304156860358E-8</v>
+      </c>
+      <c r="J46" s="1">
+        <v>7.4448611956631709E-7</v>
+      </c>
+      <c r="K46" s="1">
+        <v>7.4510748069200569E-7</v>
+      </c>
+      <c r="L46" s="1">
         <v>7.1949999999999995E-7</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="1">
         <v>6.9345097400666905E-7</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="1">
         <v>7.4627714967444698E-7</v>
       </c>
       <c r="O46">
@@ -5501,16 +5492,16 @@
       <c r="S46">
         <v>2878</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="U46" s="1">
         <v>9.4589423240346099E-51</v>
       </c>
       <c r="V46">
         <v>43613</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="W46" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X46">
@@ -5528,7 +5519,7 @@
       <c r="AB46">
         <v>52010</v>
       </c>
-      <c r="AC46" s="1" t="s">
+      <c r="AC46" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD46">
@@ -5544,47 +5535,47 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E47">
         <v>7</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="3">
         <v>37649.143111087098</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="3">
         <v>1455.4981602459</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="3">
         <v>10.9841129418406</v>
       </c>
-      <c r="I47" s="3">
-        <v>6.8029566856732502E-8</v>
-      </c>
-      <c r="J47" s="3">
-        <v>4.9400072500013705E-7</v>
-      </c>
-      <c r="K47" s="3">
-        <v>4.94402656219565E-7</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="I47" s="1">
+        <v>6.8029566612903374E-8</v>
+      </c>
+      <c r="J47" s="1">
+        <v>4.939791667822223E-7</v>
+      </c>
+      <c r="K47" s="1">
+        <v>4.9440265789581441E-7</v>
+      </c>
+      <c r="L47" s="1">
         <v>4.735E-7</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="1">
         <v>4.5241321689722598E-7</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="1">
         <v>4.9531596008075901E-7</v>
       </c>
       <c r="O47">
@@ -5602,16 +5593,16 @@
       <c r="S47">
         <v>1894</v>
       </c>
-      <c r="T47" s="5">
+      <c r="T47" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U47" s="1">
         <v>2.0401318648859602E-6</v>
       </c>
       <c r="V47">
         <v>43613</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="W47" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X47">
@@ -5629,7 +5620,7 @@
       <c r="AB47">
         <v>53131</v>
       </c>
-      <c r="AC47" s="1" t="s">
+      <c r="AC47" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AD47">
@@ -5645,47 +5636,47 @@
         <v>97.34</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E48">
         <v>4</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="3">
         <v>23600.9250460037</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="3">
         <v>825.98239750937398</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="3">
         <v>4.2782147804607797</v>
       </c>
-      <c r="I48" s="3">
-        <v>5.12492928357067E-12</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3.11128524683672E-7</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3.1119467484276801E-7</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="I48" s="1">
+        <v>5.1249292835685011E-12</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3.1098148576535894E-7</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3.1119467483957608E-7</v>
+      </c>
+      <c r="L48" s="1">
         <v>3.1549999999999999E-7</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="1">
         <v>2.98331119054041E-7</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="1">
         <v>3.3339931084247998E-7</v>
       </c>
       <c r="O48">
@@ -5703,16 +5694,16 @@
       <c r="S48">
         <v>1262</v>
       </c>
-      <c r="T48" s="5">
+      <c r="T48" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="1">
         <v>2.7892573300396698E-7</v>
       </c>
       <c r="V48">
         <v>45121</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="W48" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X48">
@@ -5730,7 +5721,7 @@
       <c r="AB48">
         <v>45957</v>
       </c>
-      <c r="AC48" s="1" t="s">
+      <c r="AC48" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD48">
@@ -5746,47 +5737,47 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E49">
         <v>20</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="3">
         <v>8525.9638931226309</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="3">
         <v>15233.808597236301</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="3">
         <v>178.074781773702</v>
       </c>
-      <c r="I49" s="3">
-        <v>2.18734615171029E-4</v>
-      </c>
-      <c r="J49" s="3">
-        <v>7.6262873559036599E-5</v>
-      </c>
-      <c r="K49" s="3">
-        <v>7.6328772863429198E-5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="I49" s="1">
+        <v>2.1873461518221035E-4</v>
+      </c>
+      <c r="J49" s="1">
+        <v>7.6262085764602515E-5</v>
+      </c>
+      <c r="K49" s="1">
+        <v>7.6328772298958188E-5</v>
+      </c>
+      <c r="L49" s="1">
         <v>7.7107692307692299E-5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="1">
         <v>7.5605573837398204E-5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="1">
         <v>7.8632146357135994E-5</v>
       </c>
       <c r="O49">
@@ -5804,16 +5795,16 @@
       <c r="S49">
         <v>10024</v>
       </c>
-      <c r="T49" s="5">
+      <c r="T49" s="2">
         <v>130000000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="1">
         <v>9.3780718724532498E-29</v>
       </c>
       <c r="V49">
         <v>32060</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="W49" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X49">
@@ -5831,7 +5822,7 @@
       <c r="AB49">
         <v>50346</v>
       </c>
-      <c r="AC49" s="1" t="s">
+      <c r="AC49" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD49">
@@ -5847,47 +5838,47 @@
         <v>82.54</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E50">
         <v>8</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="3">
         <v>36916.704790190997</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="3">
         <v>10110.4079176783</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="3">
         <v>71.695172105171295</v>
       </c>
-      <c r="I50" s="3">
-        <v>2.4444742707572199E-5</v>
-      </c>
-      <c r="J50" s="3">
-        <v>3.96252800701528E-7</v>
-      </c>
-      <c r="K50" s="3">
-        <v>3.9661011511394202E-7</v>
-      </c>
-      <c r="L50" s="3">
+      <c r="I50" s="1">
+        <v>2.4444742707127534E-5</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3.9627236821391579E-7</v>
+      </c>
+      <c r="K50" s="1">
+        <v>3.966101159250234E-7</v>
+      </c>
+      <c r="L50" s="1">
         <v>3.8524999999999999E-7</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="1">
         <v>3.6625289514046502E-7</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="1">
         <v>4.0497688698140302E-7</v>
       </c>
       <c r="O50">
@@ -5905,16 +5896,16 @@
       <c r="S50">
         <v>1541</v>
       </c>
-      <c r="T50" s="5">
+      <c r="T50" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U50" s="3">
+      <c r="U50" s="1">
         <v>1.4608534760920001E-7</v>
       </c>
       <c r="V50">
         <v>39574</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="W50" s="4" t="s">
         <v>157</v>
       </c>
       <c r="X50">
@@ -5932,7 +5923,7 @@
       <c r="AB50">
         <v>39477</v>
       </c>
-      <c r="AC50" s="1" t="s">
+      <c r="AC50" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AD50">
@@ -5948,47 +5939,47 @@
         <v>50.79</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E51">
         <v>7.5</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="3">
         <v>16223.377128739799</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="3">
         <v>710.69820431623702</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="3">
         <v>5.3956581440001701</v>
       </c>
-      <c r="I51" s="3">
-        <v>4.75201437375443E-5</v>
-      </c>
-      <c r="J51" s="3">
-        <v>1.49671878818063E-5</v>
-      </c>
-      <c r="K51" s="3">
-        <v>1.4979617501832901E-5</v>
-      </c>
-      <c r="L51" s="3">
+      <c r="I51" s="1">
+        <v>4.7520143737533858E-5</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1.496780358939788E-5</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1.4979617503403965E-5</v>
+      </c>
+      <c r="L51" s="1">
         <v>1.48238805970149E-5</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="1">
         <v>1.45337630535751E-5</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="1">
         <v>1.5118332516271201E-5</v>
       </c>
       <c r="O51">
@@ -6006,16 +5997,16 @@
       <c r="S51">
         <v>9932</v>
       </c>
-      <c r="T51" s="5">
+      <c r="T51" s="2">
         <v>670000000</v>
       </c>
-      <c r="U51" s="3">
+      <c r="U51" s="1">
         <v>2.6675276774444202E-6</v>
       </c>
       <c r="V51">
         <v>40376</v>
       </c>
-      <c r="W51" s="1" t="s">
+      <c r="W51" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X51">
@@ -6033,7 +6024,7 @@
       <c r="AB51">
         <v>54517</v>
       </c>
-      <c r="AC51" s="1" t="s">
+      <c r="AC51" s="4" t="s">
         <v>151</v>
       </c>
       <c r="AD51">
@@ -6049,47 +6040,47 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="3">
         <v>531.77513989758995</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="3">
         <v>0.33151605944340101</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="3">
         <v>1.27234446556392E-3</v>
       </c>
-      <c r="I52" s="3">
-        <v>4.5143732430726201E-81</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1.8851423023955301E-11</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1.3099453330670801E-6</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="I52" s="1">
+        <v>4.5143732396186825E-81</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1.7979607001859226E-11</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1.3099446898632536E-6</v>
+      </c>
+      <c r="L52" s="1">
         <v>1.342E-6</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="1">
         <v>1.3063373489881599E-6</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="1">
         <v>1.37838955951438E-6</v>
       </c>
       <c r="O52">
@@ -6107,16 +6098,16 @@
       <c r="S52">
         <v>5368</v>
       </c>
-      <c r="T52" s="5">
+      <c r="T52" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="1">
         <v>1.3133228489722101E-6</v>
       </c>
       <c r="V52">
         <v>48901</v>
       </c>
-      <c r="W52" s="1" t="s">
+      <c r="W52" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X52">
@@ -6134,7 +6125,7 @@
       <c r="AB52">
         <v>48903</v>
       </c>
-      <c r="AC52" s="1" t="s">
+      <c r="AC52" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD52">
@@ -6150,47 +6141,47 @@
         <v>97.61</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="3">
         <v>7877.7373577342396</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="3">
         <v>9.0101272262334398</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="3">
         <v>6.7916769738619001E-2</v>
       </c>
-      <c r="I53" s="3">
-        <v>6.4747134491972899E-168</v>
-      </c>
-      <c r="J53" s="3">
-        <v>2.8563423445712701E-164</v>
-      </c>
-      <c r="K53" s="3">
-        <v>1.15368966307295E-5</v>
-      </c>
-      <c r="L53" s="3">
+      <c r="I53" s="1">
+        <v>6.4747134479636501E-168</v>
+      </c>
+      <c r="J53" s="1">
+        <v>3.9085436066035797E-164</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1.1536896628436228E-5</v>
+      </c>
+      <c r="L53" s="1">
         <v>1.13275862068966E-5</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="1">
         <v>1.11050339704906E-5</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="1">
         <v>1.1553476478085201E-5</v>
       </c>
       <c r="O53">
@@ -6208,16 +6199,16 @@
       <c r="S53">
         <v>9855</v>
       </c>
-      <c r="T53" s="5">
+      <c r="T53" s="2">
         <v>870000000</v>
       </c>
-      <c r="U53" s="3">
+      <c r="U53" s="1">
         <v>1.28416505709793E-5</v>
       </c>
       <c r="V53">
         <v>48901</v>
       </c>
-      <c r="W53" s="1" t="s">
+      <c r="W53" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X53">
@@ -6235,7 +6226,7 @@
       <c r="AB53">
         <v>48903</v>
       </c>
-      <c r="AC53" s="1" t="s">
+      <c r="AC53" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD53">
@@ -6251,47 +6242,47 @@
         <v>97.61</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="3">
         <v>9422.2312923042191</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="3">
         <v>10.706190722946999</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="3">
         <v>8.0704691930453196E-2</v>
       </c>
-      <c r="I54" s="3">
-        <v>3.8634731166228202E-168</v>
-      </c>
-      <c r="J54" s="3">
-        <v>5.6052882491238795E-166</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1.0107323802197899E-5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="I54" s="1">
+        <v>3.8634731131805909E-168</v>
+      </c>
+      <c r="J54" s="1">
+        <v>6.4558313747896193E-166</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1.0107345950597645E-5</v>
+      </c>
+      <c r="L54" s="1">
         <v>1.0150505050505099E-5</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="1">
         <v>9.9530037078475592E-6</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="1">
         <v>1.03509397282724E-5</v>
       </c>
       <c r="O54">
@@ -6309,16 +6300,16 @@
       <c r="S54">
         <v>10049</v>
       </c>
-      <c r="T54" s="5">
+      <c r="T54" s="2">
         <v>990000000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="U54" s="1">
         <v>1.0693912264566999E-5</v>
       </c>
       <c r="V54">
         <v>48901</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="W54" s="4" t="s">
         <v>150</v>
       </c>
       <c r="X54">
@@ -6336,7 +6327,7 @@
       <c r="AB54">
         <v>48903</v>
       </c>
-      <c r="AC54" s="1" t="s">
+      <c r="AC54" s="4" t="s">
         <v>150</v>
       </c>
       <c r="AD54">

--- a/DataFiles/PcTestCaseCDMs/CARA_PcMethod_Test_Conjunctions.xlsx
+++ b/DataFiles/PcTestCaseCDMs/CARA_PcMethod_Test_Conjunctions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\CARA\analysis\SDK\DataFiles\PcTestCaseCDMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LBaars\Git\analysis\SDK\DataFiles\PcTestCaseCDMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A4E1A3-3EA9-4CEC-AF5B-D4B5459253E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6139F277-FC2E-481F-987F-2764F8E4F1DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="167">
   <si>
     <t>Primary</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>DMSP 5D-2 F11 DEB</t>
+  </si>
+  <si>
+    <t>Pc2D_NoAdj</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -847,49 +850,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AH54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" customWidth="1"/>
-    <col min="26" max="26" width="15.21875" customWidth="1"/>
-    <col min="27" max="27" width="12.77734375" customWidth="1"/>
-    <col min="28" max="28" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" customWidth="1"/>
+    <col min="27" max="27" width="15.28515625" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -915,82 +918,85 @@
         <v>139</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="W1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1016,26 +1022,26 @@
         <v>22.2150794757478</v>
       </c>
       <c r="I2" s="1">
+        <v>6.1147913740654714E-4</v>
+      </c>
+      <c r="J2" s="1">
         <v>6.114793230828587E-4</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>6.1209753075125483E-4</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>6.1262709136015309E-4</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>6.1775000000000003E-4</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>6.0563442748680905E-4</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>6.3004685728014302E-4</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
         <v>0</v>
       </c>
@@ -1046,52 +1052,55 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>9884</v>
       </c>
-      <c r="T2" s="2">
+      <c r="U2" s="2">
         <v>16000000</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>5.9967454041280903E-4</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>20580</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>95.08</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>521</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>524</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>28.47</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>22015</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>93.55</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>428</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>468</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>20.71</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1117,26 +1126,26 @@
         <v>94.972341726405702</v>
       </c>
       <c r="I3" s="1">
+        <v>2.1172782261112858E-2</v>
+      </c>
+      <c r="J3" s="1">
         <v>2.1173811560368256E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>2.1173759216088561E-2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>2.1191592654205112E-2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>2.1476086956521701E-2</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>2.1059094540569999E-2</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>2.1899121776879998E-2</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
         <v>0</v>
       </c>
@@ -1147,52 +1156,55 @@
         <v>0</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>9879</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>460000</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>2.11921953173589E-2</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>25994</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>98.67</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>693</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>697</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>98.08</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>37558</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>98.08</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>629</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>704</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>86.4</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1218,26 +1230,26 @@
         <v>90.945020293724397</v>
       </c>
       <c r="I4" s="1">
+        <v>2.3236846704222935E-3</v>
+      </c>
+      <c r="J4" s="1">
         <v>2.3236849651128103E-3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>2.3236532874563588E-3</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>2.3254865565206046E-3</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>2.2647727272727299E-3</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>2.2205706709919801E-3</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>2.3096318209279701E-3</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
@@ -1248,52 +1260,55 @@
         <v>0</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>9965</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <v>4400000</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>2.3256224929977202E-3</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>28485</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>95.17</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>520</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>534</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>20.56</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>44777</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>95.08</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>518</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>527</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>97.61</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1319,26 +1334,26 @@
         <v>72.383334838224499</v>
       </c>
       <c r="I5" s="1">
+        <v>1.7606263388028781E-3</v>
+      </c>
+      <c r="J5" s="1">
         <v>1.7607076292740992E-3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>1.7607372715931643E-3</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1.7622342015356227E-3</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>1.7550877192982501E-3</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>1.72089128847415E-3</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>1.78979185246552E-3</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
       <c r="P5">
         <v>0</v>
       </c>
@@ -1349,52 +1364,55 @@
         <v>0</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>10004</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>5700000</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>1.7620917489446801E-3</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>29108</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>98.32</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>677</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>679</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>98.39</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>34995</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AD5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>97.81</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>628</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>679</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>73.83</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -1420,26 +1438,26 @@
         <v>144.12776086454801</v>
       </c>
       <c r="I6" s="1">
+        <v>6.5817476549134817E-3</v>
+      </c>
+      <c r="J6" s="1">
         <v>6.5817682550912563E-3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>6.581769561402038E-3</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>6.5873701700900041E-3</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>6.6273333333333297E-3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>6.4981074277359304E-3</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>6.7584696771330298E-3</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -1450,52 +1468,55 @@
         <v>0</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>9941</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <v>1500000</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>6.5275264592510197E-3</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>32060</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>94.42</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>488</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>493</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>97.39</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>44396</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>93.03</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>414</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>432</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>97.64</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1521,26 +1542,26 @@
         <v>17.191140600646801</v>
       </c>
       <c r="I7" s="1">
+        <v>4.5388449305491388E-3</v>
+      </c>
+      <c r="J7" s="1">
         <v>4.5388484529517558E-3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>4.5388537779610782E-3</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>4.5424150498179156E-3</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>4.5095454545454501E-3</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>4.4214345192682596E-3</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>4.5989645527155102E-3</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
       <c r="P7">
         <v>0</v>
       </c>
@@ -1551,52 +1572,55 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>9921</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>2200000</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>4.5425232686028402E-3</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>33591</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>101.92</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>840</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>859</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>99.09</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>42216</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AD7" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>101.81</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>830</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>858</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>82.89</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -1622,26 +1646,26 @@
         <v>138.46823094682199</v>
       </c>
       <c r="I8" s="1">
+        <v>1.0489561620298779E-2</v>
+      </c>
+      <c r="J8" s="1">
         <v>1.0491820807529178E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>1.049180313659628E-2</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>1.050078954279955E-2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>1.03863157894737E-2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>1.01834148725335E-2</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>1.05922102608979E-2</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
@@ -1652,52 +1676,55 @@
         <v>0</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>9867</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <v>950000</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>1.0493579328095999E-2</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>37849</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>101.44</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>826</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>827</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>98.71</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>13512</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AD8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>101.21</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>792</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>840</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>65.48</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1723,26 +1750,26 @@
         <v>10.7348536464402</v>
       </c>
       <c r="I9" s="1">
+        <v>1.5591403487380158E-3</v>
+      </c>
+      <c r="J9" s="1">
         <v>1.5591439922686598E-3</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>1.5591930759917224E-3</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>1.5604382958264744E-3</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>1.52296875E-3</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>1.49290480714669E-3</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>1.5534850956955199E-3</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
         <v>0</v>
       </c>
@@ -1753,52 +1780,55 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>9747</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>6400000</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>1.5602155781275699E-3</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>38771</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>101.3</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>819</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>821</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>98.66</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>30802</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AD9" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>101.31</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>803</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>838</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>98.88</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1824,26 +1854,26 @@
         <v>30.261069940998201</v>
       </c>
       <c r="I10" s="1">
+        <v>7.8614328950869078E-4</v>
+      </c>
+      <c r="J10" s="1">
         <v>7.861435351036993E-4</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>7.8617971351962221E-4</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>7.8684043236151727E-4</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>7.8807692307692303E-4</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>7.7289552241397103E-4</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>8.0348135400747501E-4</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
         <v>0</v>
       </c>
@@ -1854,52 +1884,55 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>10245</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>13000000</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>7.8746449597598899E-4</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>40059</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>98.83</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>702</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>703</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>98.21</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>35921</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>99.72</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>670</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>821</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>86.41</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1925,26 +1958,26 @@
         <v>144.35744773987199</v>
       </c>
       <c r="I11" s="1">
+        <v>2.4518452764294512E-3</v>
+      </c>
+      <c r="J11" s="1">
         <v>2.4518459608000578E-3</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>2.4520277235488448E-3</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>2.4540715173742441E-3</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>2.4402500000000001E-3</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>2.3921345559061299E-3</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>2.4890879560724799E-3</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -1955,52 +1988,55 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>9761</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>4000000</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>2.42923295071814E-3</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>41848</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>91.16</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>325</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>338</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>97.81</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>44431</v>
       </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AD11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>91.21</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>332</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>336</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>51.63</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -2026,26 +2062,26 @@
         <v>112.436340078745</v>
       </c>
       <c r="I12" s="1">
+        <v>1.2941841104338147E-4</v>
+      </c>
+      <c r="J12" s="1">
         <v>1.2941853594235998E-4</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>1.2940349769996408E-4</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>1.29505612815583E-4</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>1.31269230769231E-4</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>1.2873893085156999E-4</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>1.3383675130366999E-4</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
         <v>0</v>
       </c>
@@ -2056,52 +2092,55 @@
         <v>0</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>10239</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <v>78000000</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>1.2609306506170201E-4</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>43477</v>
       </c>
-      <c r="W12" s="4" t="s">
+      <c r="X12" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>94.3</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>477</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>492</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>88.99</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>46952</v>
       </c>
-      <c r="AC12" s="4" t="s">
+      <c r="AD12" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>94.55</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>487</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>507</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>97.4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -2127,26 +2166,26 @@
         <v>123.25065615416599</v>
       </c>
       <c r="I13" s="1">
+        <v>1.6012269077373922E-4</v>
+      </c>
+      <c r="J13" s="1">
         <v>1.601232278031833E-4</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>1.6007861076890246E-4</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>1.6020385312449925E-4</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>1.6177419354838701E-4</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>1.5862377336064401E-4</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>1.6497143842961301E-4</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
       <c r="P13">
         <v>0</v>
       </c>
@@ -2157,52 +2196,55 @@
         <v>0</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>10030</v>
       </c>
-      <c r="T13" s="2">
+      <c r="U13" s="2">
         <v>62000000</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>1.6619254370772401E-4</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>44628</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="X13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>96.23</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>566</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>590</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>26.99</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>27127</v>
       </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AD13" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>94.96</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>500</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>533</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>97.66</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -2228,26 +2270,26 @@
         <v>3.7643498061505198</v>
       </c>
       <c r="I14" s="1">
+        <v>1.0341739680078816E-5</v>
+      </c>
+      <c r="J14" s="1">
         <v>1.0341740082728513E-5</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>1.0342857073004231E-5</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>1.0350768372283169E-5</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>1.04916666666667E-5</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>1.0287759359971301E-5</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>1.0698598961548601E-5</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
       <c r="P14">
         <v>0</v>
       </c>
@@ -2258,52 +2300,55 @@
         <v>0</v>
       </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>10072</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <v>960000000</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <v>1.0350264457593E-5</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>27424</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="X14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>98.74</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>697</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>699</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>98.3</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>48164</v>
       </c>
-      <c r="AC14" s="4" t="s">
+      <c r="AD14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>100.13</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>713</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>817</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>98.41</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -2329,26 +2374,26 @@
         <v>0.94321677724680197</v>
       </c>
       <c r="I15" s="1">
+        <v>4.9977577395711285E-3</v>
+      </c>
+      <c r="J15" s="1">
         <v>4.9977602651036209E-3</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>4.9979198087156621E-3</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>5.0020694811676114E-3</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>4.993E-3</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>4.8957824868373096E-3</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>5.0916550735793696E-3</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
       <c r="P15">
         <v>0</v>
       </c>
@@ -2359,52 +2404,55 @@
         <v>0</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>9986</v>
       </c>
-      <c r="T15" s="2">
+      <c r="U15" s="2">
         <v>2000000</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <v>5.0020779282637E-3</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>28654</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>101.91</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>838</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>860</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>98.9</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>41835</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AD15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>101.32</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>806</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>836</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>98.93</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -2430,26 +2478,26 @@
         <v>3.5853300394607301</v>
       </c>
       <c r="I16" s="1">
+        <v>2.8440011740497669E-5</v>
+      </c>
+      <c r="J16" s="1">
         <v>2.8440011794889381E-5</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>2.8977758951957277E-5</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>2.9002543011130321E-5</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>2.9288235294117599E-5</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>2.8715785646631199E-5</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>2.9869225927075301E-5</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
       <c r="P16">
         <v>0</v>
       </c>
@@ -2460,52 +2508,55 @@
         <v>0</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>9958</v>
       </c>
-      <c r="T16" s="2">
+      <c r="U16" s="2">
         <v>340000000</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <v>2.8609841039763E-5</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>28654</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="X16" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>101.91</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>838</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>860</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>98.9</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>42397</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AD16" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>101.27</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>786</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>852</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>98.76</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -2531,26 +2582,26 @@
         <v>1.7241310986973899</v>
       </c>
       <c r="I17" s="1">
+        <v>2.3450152070265012E-5</v>
+      </c>
+      <c r="J17" s="1">
         <v>2.3450152070275718E-5</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>2.3664624439586263E-5</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>2.3684421500037458E-5</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>2.3876744186046499E-5</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>2.3417105296068298E-5</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>2.43431361416222E-5</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
       <c r="P17">
         <v>0</v>
       </c>
@@ -2561,52 +2612,55 @@
         <v>0</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>10267</v>
       </c>
-      <c r="T17" s="2">
+      <c r="U17" s="2">
         <v>430000000</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>2.3764658687213901E-5</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>32060</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="X17" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>94.42</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>488</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>493</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>97.39</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>53480</v>
       </c>
-      <c r="AC17" s="4" t="s">
+      <c r="AD17" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>95.92</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>562</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>564</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>97.66</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -2632,26 +2686,26 @@
         <v>1.01828435696889</v>
       </c>
       <c r="I18" s="1">
+        <v>1.0724125975531239E-4</v>
+      </c>
+      <c r="J18" s="1">
         <v>1.0724126088444668E-4</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>1.0713860216307859E-4</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>1.0722646468728138E-4</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>1.0680645161290301E-4</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>1.04716345519583E-4</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>1.08927778109004E-4</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
         <v>0</v>
       </c>
@@ -2662,52 +2716,55 @@
         <v>0</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>9933</v>
       </c>
-      <c r="T18" s="2">
+      <c r="U18" s="2">
         <v>93000000</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <v>1.0726794103756E-4</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>40115</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="X18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>96.96</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>612</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>614</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>97.83</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>30660</v>
       </c>
-      <c r="AC18" s="4" t="s">
+      <c r="AD18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>97.88</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>532</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>782</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>98.19</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -2733,26 +2790,26 @@
         <v>0.91804993873422003</v>
       </c>
       <c r="I19" s="1">
+        <v>1.3522696018782125E-5</v>
+      </c>
+      <c r="J19" s="1">
         <v>1.3522696019880811E-5</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>1.3543120112005495E-5</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>1.3553751968724241E-5</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>1.33972972972973E-5</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>1.3134862419905601E-5</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>1.3663656565175699E-5</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
       <c r="P19">
         <v>0</v>
       </c>
@@ -2763,52 +2820,55 @@
         <v>0</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>9914</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U19" s="2">
         <v>740000000</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <v>1.3524827812863499E-5</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>48901</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="X19" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>94.04</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>467</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>477</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>97.6</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>48954</v>
       </c>
-      <c r="AC19" s="4" t="s">
+      <c r="AD19" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>94.54</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>489</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>503</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>97.61</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34">
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
@@ -2834,26 +2894,26 @@
         <v>168.05383866850201</v>
       </c>
       <c r="I20" s="1">
+        <v>1.0824930523106743E-4</v>
+      </c>
+      <c r="J20" s="1">
         <v>1.0824948102737557E-4</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>1.0804152636958635E-4</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>1.0812739998130439E-4</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>1.08760869565217E-4</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>1.06640259460641E-4</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>1.10913038912666E-4</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -2864,52 +2924,55 @@
         <v>0</v>
       </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>10006</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="2">
         <v>92000000</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <v>4.0983120500140699E-20</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>25994</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="X20" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>98.67</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>693</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>697</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>98.08</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>26980</v>
       </c>
-      <c r="AC20" s="4" t="s">
+      <c r="AD20" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>97.83</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>615</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>694</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>71.11</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -2935,26 +2998,26 @@
         <v>162.75950385039599</v>
       </c>
       <c r="I21" s="1">
+        <v>2.5562906509581893E-4</v>
+      </c>
+      <c r="J21" s="1">
         <v>2.5562908890735815E-4</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>2.5470318721833627E-4</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>2.5490192125936489E-4</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>2.5457499999999999E-4</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>2.49654787680344E-4</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>2.5956777529384702E-4</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
       <c r="P21">
         <v>0</v>
       </c>
@@ -2965,52 +3028,55 @@
         <v>0</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>10183</v>
       </c>
-      <c r="T21" s="2">
+      <c r="U21" s="2">
         <v>40000000</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="1">
         <v>9.0107686496439497E-16</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>27424</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="X21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>98.74</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>697</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>699</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>98.3</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>41740</v>
       </c>
-      <c r="AC21" s="4" t="s">
+      <c r="AD21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>92.37</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>367</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>414</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>98.47</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -3036,26 +3102,26 @@
         <v>156.060120915607</v>
       </c>
       <c r="I22" s="1">
+        <v>1.7627476997014981E-4</v>
+      </c>
+      <c r="J22" s="1">
         <v>1.7627477047939155E-4</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>1.7714243522064214E-4</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>1.7728101017819504E-4</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>1.7552631578947401E-4</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>1.72103860011602E-4</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>1.78999702503206E-4</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
       <c r="P22">
         <v>0</v>
       </c>
@@ -3066,52 +3132,55 @@
         <v>0</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <v>10005</v>
       </c>
-      <c r="T22" s="2">
+      <c r="U22" s="2">
         <v>57000000</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <v>3.16181718105645E-11</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>32060</v>
       </c>
-      <c r="W22" s="4" t="s">
+      <c r="X22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>94.42</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>488</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>493</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>97.39</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>35644</v>
       </c>
-      <c r="AC22" s="4" t="s">
+      <c r="AD22" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>95.33</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>522</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>547</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34">
       <c r="A23" s="4" t="s">
         <v>159</v>
       </c>
@@ -3137,26 +3206,26 @@
         <v>34.792597671529101</v>
       </c>
       <c r="I23" s="1">
+        <v>1.2125491429454116E-3</v>
+      </c>
+      <c r="J23" s="1">
         <v>1.2161239807627223E-3</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>1.2161236996322241E-3</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>1.2171318972798205E-3</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>1.2074390243902401E-3</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>1.1837852908430299E-3</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>1.23144606683266E-3</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
       <c r="P23">
         <v>0</v>
       </c>
@@ -3167,52 +3236,55 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>9901</v>
       </c>
-      <c r="T23" s="2">
+      <c r="U23" s="2">
         <v>8200000</v>
       </c>
-      <c r="U23" s="1">
+      <c r="V23" s="1">
         <v>1.21713526670285E-3</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>25994</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="X23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>98.67</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>693</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>697</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>98.08</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>26132</v>
       </c>
-      <c r="AC23" s="4" t="s">
+      <c r="AD23" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>99.88</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>662</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>844</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>98.69</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34">
       <c r="A24" s="4" t="s">
         <v>162</v>
       </c>
@@ -3238,26 +3310,26 @@
         <v>126.263320365231</v>
       </c>
       <c r="I24" s="1">
+        <v>3.7023089678525667E-5</v>
+      </c>
+      <c r="J24" s="1">
         <v>3.7105166669346867E-5</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>3.7105869349279052E-5</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>3.7135049557175796E-5</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>3.6814814814814799E-5</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>3.6094609928877197E-5</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>3.7545774886775799E-5</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
       <c r="P24">
         <v>0</v>
       </c>
@@ -3268,52 +3340,55 @@
         <v>0</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>9940</v>
       </c>
-      <c r="T24" s="2">
+      <c r="U24" s="2">
         <v>270000000</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <v>3.7135113498505702E-5</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>27424</v>
       </c>
-      <c r="W24" s="4" t="s">
+      <c r="X24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>98.74</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>697</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>699</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>98.3</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>31201</v>
       </c>
-      <c r="AC24" s="4" t="s">
+      <c r="AD24" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>100.72</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>684</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>902</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>99.05</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34">
       <c r="A25" s="4" t="s">
         <v>163</v>
       </c>
@@ -3339,26 +3414,26 @@
         <v>108.508877493645</v>
       </c>
       <c r="I25" s="1">
+        <v>1.5375047638146902E-4</v>
+      </c>
+      <c r="J25" s="1">
         <v>1.5382182694238661E-4</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>1.53822314556309E-4</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>1.5394905160723084E-4</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>1.51476923076923E-4</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>1.48499717642343E-4</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>1.5449879437839199E-4</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
       <c r="P25">
         <v>0</v>
       </c>
@@ -3369,52 +3444,55 @@
         <v>0</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>9846</v>
       </c>
-      <c r="T25" s="2">
+      <c r="U25" s="2">
         <v>65000000</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <v>1.53952145721854E-4</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>54234</v>
       </c>
-      <c r="W25" s="4" t="s">
+      <c r="X25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>101.44</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>826</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>827</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>98.75</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>28343</v>
       </c>
-      <c r="AC25" s="4" t="s">
+      <c r="AD25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>101.11</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>759</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>863</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>98.92</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3440,29 +3518,29 @@
         <v>0.39007027230277602</v>
       </c>
       <c r="I26" s="1">
+        <v>4.4545372766390701E-23</v>
+      </c>
+      <c r="J26" s="1">
         <v>4.454537276414265E-23</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>1.5200790229714784E-4</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>1.5211147154089839E-4</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>1.5178787878787899E-4</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>1.4883015826960399E-4</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>1.54789587105932E-4</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>100</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
       <c r="Q26">
         <v>0</v>
       </c>
@@ -3470,52 +3548,55 @@
         <v>0</v>
       </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <v>10018</v>
       </c>
-      <c r="T26" s="2">
+      <c r="U26" s="2">
         <v>66000000</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <v>1.2735707029955199E-4</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>35946</v>
       </c>
-      <c r="W26" s="4" t="s">
+      <c r="X26" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>100.17</v>
-      </c>
-      <c r="Y26">
-        <v>767</v>
       </c>
       <c r="Z26">
         <v>767</v>
       </c>
       <c r="AA26">
+        <v>767</v>
+      </c>
+      <c r="AB26">
         <v>98.44</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>30648</v>
       </c>
-      <c r="AC26" s="4" t="s">
+      <c r="AD26" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>100.61</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>757</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>819</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>98.67</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3541,29 +3622,29 @@
         <v>174.22450943162201</v>
       </c>
       <c r="I27" s="1">
+        <v>9.4082528354473384E-5</v>
+      </c>
+      <c r="J27" s="1">
         <v>9.4082549800875113E-5</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>1.4421123334270588E-4</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>1.4433627049810933E-4</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>1.44957142857143E-4</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>1.4215044108820601E-4</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>1.4780531851575599E-4</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>100</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
       <c r="Q27">
         <v>0</v>
       </c>
@@ -3571,52 +3652,55 @@
         <v>0</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>10147</v>
       </c>
-      <c r="T27" s="2">
+      <c r="U27" s="2">
         <v>70000000</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>1.8286782615783199E-28</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>32060</v>
       </c>
-      <c r="W27" s="4" t="s">
+      <c r="X27" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>94.42</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>488</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>493</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>97.39</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>49574</v>
       </c>
-      <c r="AC27" s="4" t="s">
+      <c r="AD27" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>89.66</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>248</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>267</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>81.7</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3642,29 +3726,29 @@
         <v>16.174781602741199</v>
       </c>
       <c r="I28" s="1">
+        <v>1.8622335315326665E-5</v>
+      </c>
+      <c r="J28" s="1">
         <v>1.8622335333482332E-5</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>4.7301511182858345E-5</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>4.733902350118532E-5</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>4.78952380952381E-5</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>4.6963758612454997E-5</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>4.8840545093949802E-5</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>100</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
       <c r="Q28">
         <v>0</v>
       </c>
@@ -3672,52 +3756,55 @@
         <v>0</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>10058</v>
       </c>
-      <c r="T28" s="2">
+      <c r="U28" s="2">
         <v>210000000</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="1">
         <v>2.6239136889865699E-5</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>20580</v>
       </c>
-      <c r="W28" s="4" t="s">
+      <c r="X28" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>95.08</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>521</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>524</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>28.47</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>2017</v>
       </c>
-      <c r="AC28" s="4" t="s">
+      <c r="AD28" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>111.92</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>495</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>2135</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>34.07</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3743,29 +3830,29 @@
         <v>4.4732486920470702</v>
       </c>
       <c r="I29" s="1">
+        <v>4.5403116971382806E-6</v>
+      </c>
+      <c r="J29" s="1">
         <v>4.5403116973645731E-6</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>1.6605146116944652E-5</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>1.6618182396425853E-5</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>1.6483333333333301E-5</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>1.61600580661086E-5</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>1.68114486721111E-5</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>100</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
       <c r="Q29">
         <v>0</v>
       </c>
@@ -3773,52 +3860,55 @@
         <v>0</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>9890</v>
       </c>
-      <c r="T29" s="2">
+      <c r="U29" s="2">
         <v>600000000</v>
       </c>
-      <c r="U29" s="1">
+      <c r="V29" s="1">
         <v>1.3787488027671901E-5</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>29108</v>
       </c>
-      <c r="W29" s="4" t="s">
+      <c r="X29" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>98.32</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>677</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>679</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>98.39</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>40337</v>
       </c>
-      <c r="AC29" s="4" t="s">
+      <c r="AD29" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>96.34</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>471</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>696</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>98.51</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3844,29 +3934,29 @@
         <v>22.132266059589099</v>
       </c>
       <c r="I30" s="1">
+        <v>2.9182522345639286E-7</v>
+      </c>
+      <c r="J30" s="1">
         <v>2.9182522376585466E-7</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>3.4553142045899321E-5</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>3.4582652203187895E-5</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>3.4903448275862097E-5</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>3.42267713419441E-5</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>3.5590138392330801E-5</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>100</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
       <c r="Q30">
         <v>0</v>
       </c>
@@ -3874,52 +3964,55 @@
         <v>0</v>
       </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <v>10122</v>
       </c>
-      <c r="T30" s="2">
+      <c r="U30" s="2">
         <v>290000000</v>
       </c>
-      <c r="U30" s="1">
+      <c r="V30" s="1">
         <v>1.2615858871579101E-5</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>39574</v>
       </c>
-      <c r="W30" s="4" t="s">
+      <c r="X30" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>92.51</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>390</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>406</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>64.989999999999995</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>45957</v>
       </c>
-      <c r="AC30" s="4" t="s">
+      <c r="AD30" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>102.21</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>406</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1320</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>51.34</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3945,29 +4038,29 @@
         <v>75.6864723802491</v>
       </c>
       <c r="I31" s="1">
+        <v>5.6687838070839129E-7</v>
+      </c>
+      <c r="J31" s="1">
         <v>5.6687838266322718E-7</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>1.7197739495395736E-6</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>1.7212285954918261E-6</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>1.7002499999999999E-6</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>1.66007862894645E-6</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>1.74114790803293E-6</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>100</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
       <c r="Q31">
         <v>0</v>
       </c>
@@ -3975,52 +4068,55 @@
         <v>0</v>
       </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <v>6801</v>
       </c>
-      <c r="T31" s="2">
+      <c r="U31" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U31" s="1">
+      <c r="V31" s="1">
         <v>4.4709296536782198E-8</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>30580</v>
       </c>
-      <c r="W31" s="4" t="s">
+      <c r="X31" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>1639.45</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1348</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>78009</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>11.03</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>19175</v>
       </c>
-      <c r="AC31" s="4" t="s">
+      <c r="AD31" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>110.05</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>985</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1473</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>82.36</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -4046,29 +4142,29 @@
         <v>165.95522198228599</v>
       </c>
       <c r="I32" s="1">
+        <v>1.1088425527984942E-6</v>
+      </c>
+      <c r="J32" s="1">
         <v>1.1088425815007564E-6</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <v>3.2647329562817799E-6</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>3.2675410665606885E-6</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>3.21645161290323E-6</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>3.1536248450788499E-6</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>3.2802151807270401E-6</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>100</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
       <c r="Q32">
         <v>0</v>
       </c>
@@ -4076,52 +4172,55 @@
         <v>0</v>
       </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <v>9971</v>
       </c>
-      <c r="T32" s="2">
+      <c r="U32" s="2">
         <v>3100000000</v>
       </c>
-      <c r="U32" s="1">
+      <c r="V32" s="1">
         <v>7.2239534227273205E-16</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>43613</v>
       </c>
-      <c r="W32" s="4" t="s">
+      <c r="X32" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>94.22</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>479</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>483</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>92</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>48526</v>
       </c>
-      <c r="AC32" s="4" t="s">
+      <c r="AD32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>93.92</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>454</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>478</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>98.18</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -4147,29 +4246,29 @@
         <v>174.385819365157</v>
       </c>
       <c r="I33" s="1">
+        <v>9.7266413210621829E-7</v>
+      </c>
+      <c r="J33" s="1">
         <v>9.7266417378986518E-7</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>3.3120913050423315E-6</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <v>3.314609580397408E-6</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>3.2480000000000001E-6</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <v>3.1838258849006999E-6</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>3.3131421794242698E-6</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>100</v>
       </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
       <c r="Q33">
         <v>0</v>
       </c>
@@ -4177,52 +4276,55 @@
         <v>0</v>
       </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <v>9744</v>
       </c>
-      <c r="T33" s="2">
+      <c r="U33" s="2">
         <v>3000000000</v>
       </c>
-      <c r="U33" s="1">
+      <c r="V33" s="1">
         <v>1.25627606369437E-13</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>43613</v>
       </c>
-      <c r="W33" s="4" t="s">
+      <c r="X33" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>94.22</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>479</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>483</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>92</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>50564</v>
       </c>
-      <c r="AC33" s="4" t="s">
+      <c r="AD33" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>88.44</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>189</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>206</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>82.49</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -4248,29 +4350,29 @@
         <v>174.56722971013599</v>
       </c>
       <c r="I34" s="1">
+        <v>2.8924672985434958E-7</v>
+      </c>
+      <c r="J34" s="1">
         <v>2.8924673046060929E-7</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <v>1.420596288855526E-6</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>1.4217820747509373E-6</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>1.4407499999999999E-6</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <v>1.40378994046036E-6</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>1.4784368519512901E-6</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>100</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
       <c r="Q34">
         <v>0</v>
       </c>
@@ -4278,52 +4380,55 @@
         <v>0</v>
       </c>
       <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <v>5763</v>
       </c>
-      <c r="T34" s="2">
+      <c r="U34" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U34" s="1">
+      <c r="V34" s="1">
         <v>1.7524439421120499E-171</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>43613</v>
       </c>
-      <c r="W34" s="4" t="s">
+      <c r="X34" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>94.22</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>479</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>483</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>92</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>50666</v>
       </c>
-      <c r="AC34" s="4" t="s">
+      <c r="AD34" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>89.13</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>224</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>239</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>82.55</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4349,29 +4454,29 @@
         <v>174.57485708158001</v>
       </c>
       <c r="I35" s="1">
+        <v>5.3697046836189104E-7</v>
+      </c>
+      <c r="J35" s="1">
         <v>5.3697087334608984E-7</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>2.2824179021135955E-6</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <v>2.2842262273768086E-6</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>2.328E-6</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <v>2.28095374829512E-6</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>2.3757723579476302E-6</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>100</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
       <c r="Q35">
         <v>0</v>
       </c>
@@ -4379,52 +4484,55 @@
         <v>0</v>
       </c>
       <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>9312</v>
       </c>
-      <c r="T35" s="2">
+      <c r="U35" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U35" s="1">
+      <c r="V35" s="1">
         <v>7.2276135185865402E-210</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>43613</v>
       </c>
-      <c r="W35" s="4" t="s">
+      <c r="X35" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>94.22</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>479</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>483</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>92</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>50710</v>
       </c>
-      <c r="AC35" s="4" t="s">
+      <c r="AD35" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>88.34</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>182</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>202</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>82.54</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4450,29 +4558,29 @@
         <v>62.645283373059797</v>
       </c>
       <c r="I36" s="1">
+        <v>2.7441028646427825E-7</v>
+      </c>
+      <c r="J36" s="1">
         <v>2.744102864621819E-7</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <v>1.3662898958129609E-6</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <v>1.367381437106992E-6</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>1.3585E-6</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <v>1.3226173237843901E-6</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <v>1.3951095644461301E-6</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>100</v>
       </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
       <c r="Q36">
         <v>0</v>
       </c>
@@ -4480,52 +4588,55 @@
         <v>0</v>
       </c>
       <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <v>5434</v>
       </c>
-      <c r="T36" s="2">
+      <c r="U36" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U36" s="1">
+      <c r="V36" s="1">
         <v>1.6171527264276599E-10</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>45121</v>
       </c>
-      <c r="W36" s="4" t="s">
+      <c r="X36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>88.54</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>198</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>207</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>51.62</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>14729</v>
       </c>
-      <c r="AC36" s="4" t="s">
+      <c r="AD36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>105.74</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>396</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>1662</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>63.3</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34">
       <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4551,29 +4662,29 @@
         <v>9.9251335401423102</v>
       </c>
       <c r="I37" s="1">
+        <v>1.0528810522231525E-7</v>
+      </c>
+      <c r="J37" s="1">
         <v>1.0528810551615995E-7</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>5.6662319356317163E-7</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>5.6711063774664068E-7</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>5.7975000000000004E-7</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
         <v>5.5639159202022903E-7</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <v>6.0383704808603597E-7</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>100</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
       <c r="Q37">
         <v>0</v>
       </c>
@@ -4581,52 +4692,55 @@
         <v>0</v>
       </c>
       <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <v>2319</v>
       </c>
-      <c r="T37" s="2">
+      <c r="U37" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U37" s="1">
+      <c r="V37" s="1">
         <v>6.7343519858232102E-9</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>29479</v>
       </c>
-      <c r="W37" s="4" t="s">
+      <c r="X37" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>98.24</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>661</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>688</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>98.1</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>42794</v>
       </c>
-      <c r="AC37" s="4" t="s">
+      <c r="AD37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>96.19</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>498</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>654</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>97.48</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34">
       <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4652,29 +4766,29 @@
         <v>2.42002705425852</v>
       </c>
       <c r="I38" s="1">
+        <v>2.5798883474007632E-8</v>
+      </c>
+      <c r="J38" s="1">
         <v>2.5798883478593541E-8</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <v>4.7270142160284892E-7</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>4.7307253173559254E-7</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>4.7975000000000004E-7</v>
       </c>
-      <c r="M38" s="1">
+      <c r="N38" s="1">
         <v>4.5852293572324698E-7</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="1">
         <v>5.0170620482770403E-7</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>100</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
       <c r="Q38">
         <v>0</v>
       </c>
@@ -4682,52 +4796,55 @@
         <v>0</v>
       </c>
       <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
         <v>1919</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U38" s="1">
+      <c r="V38" s="1">
         <v>6.8522557811936299E-7</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>29479</v>
       </c>
-      <c r="W38" s="4" t="s">
+      <c r="X38" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>98.24</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>661</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>688</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>98.1</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>54630</v>
       </c>
-      <c r="AC38" s="4" t="s">
+      <c r="AD38" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>99.95</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>673</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>839</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>98.7</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4753,29 +4870,29 @@
         <v>177.22836170289901</v>
       </c>
       <c r="I39" s="1">
+        <v>1.1185056583674349E-8</v>
+      </c>
+      <c r="J39" s="1">
         <v>1.1185075906514092E-8</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <v>2.1192050691162185E-7</v>
       </c>
-      <c r="K39" s="1">
+      <c r="L39" s="1">
         <v>2.1208977466736348E-7</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <v>1.9649999999999999E-7</v>
       </c>
-      <c r="M39" s="1">
+      <c r="N39" s="1">
         <v>1.83000916523078E-7</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <v>2.1073132956496E-7</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>100</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
       <c r="Q39">
         <v>0</v>
       </c>
@@ -4783,52 +4900,55 @@
         <v>0</v>
       </c>
       <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
         <v>786</v>
       </c>
-      <c r="T39" s="2">
+      <c r="U39" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U39" s="1">
-        <v>0</v>
-      </c>
-      <c r="V39">
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39">
         <v>33331</v>
       </c>
-      <c r="W39" s="4" t="s">
+      <c r="X39" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>98.33</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>674</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>684</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>98.08</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>49571</v>
       </c>
-      <c r="AC39" s="4" t="s">
+      <c r="AD39" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>88.82</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>202</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>230</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>81.93</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4854,29 +4974,29 @@
         <v>9.2468368938851597</v>
       </c>
       <c r="I40" s="1">
+        <v>2.897004923706724E-8</v>
+      </c>
+      <c r="J40" s="1">
         <v>2.8970049248366259E-8</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>1.6990842444271989E-7</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="1">
         <v>1.7004194227970119E-7</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <v>1.6850000000000001E-7</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="1">
         <v>1.5601735255555601E-7</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <v>1.8171558014735101E-7</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>100</v>
       </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
       <c r="Q40">
         <v>0</v>
       </c>
@@ -4884,52 +5004,55 @@
         <v>0</v>
       </c>
       <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
         <v>674</v>
       </c>
-      <c r="T40" s="2">
+      <c r="U40" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U40" s="1">
+      <c r="V40" s="1">
         <v>1.61167666220754E-6</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>43613</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="X40" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>94.22</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>479</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>483</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>92</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>43712</v>
       </c>
-      <c r="AC40" s="4" t="s">
+      <c r="AD40" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>93.38</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>433</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>447</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>97.38</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4955,29 +5078,29 @@
         <v>174.37775263025699</v>
       </c>
       <c r="I41" s="1">
+        <v>2.1767597879350253E-8</v>
+      </c>
+      <c r="J41" s="1">
         <v>2.1767609219715325E-8</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <v>1.1033326881959081E-7</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <v>1.1041983731801898E-7</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <v>1.0125E-7</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41" s="1">
         <v>9.1627790888561806E-8</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>1.11607824478391E-7</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>100</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
       <c r="Q41">
         <v>0</v>
       </c>
@@ -4985,52 +5108,55 @@
         <v>0</v>
       </c>
       <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <v>405</v>
       </c>
-      <c r="T41" s="2">
+      <c r="U41" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U41" s="1">
-        <v>0</v>
-      </c>
-      <c r="V41">
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41">
         <v>43613</v>
       </c>
-      <c r="W41" s="4" t="s">
+      <c r="X41" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>94.22</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>479</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>483</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>92</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>49557</v>
       </c>
-      <c r="AC41" s="4" t="s">
+      <c r="AD41" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>88.02</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>170</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>183</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>82.56</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -5056,29 +5182,29 @@
         <v>170.041758415168</v>
       </c>
       <c r="I42" s="1">
+        <v>1.7717251905053688E-8</v>
+      </c>
+      <c r="J42" s="1">
         <v>1.7717255121829266E-8</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <v>1.0494861709996066E-7</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <v>1.0503582407335432E-7</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <v>1.0075E-7</v>
       </c>
-      <c r="M42" s="1">
+      <c r="N42" s="1">
         <v>9.1152173363223305E-8</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <v>1.11083471494006E-7</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>100</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
       <c r="Q42">
         <v>0</v>
       </c>
@@ -5086,52 +5212,55 @@
         <v>0</v>
       </c>
       <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
         <v>403</v>
       </c>
-      <c r="T42" s="2">
+      <c r="U42" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U42" s="1">
+      <c r="V42" s="1">
         <v>3.2548499643964698E-124</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>43613</v>
       </c>
-      <c r="W42" s="4" t="s">
+      <c r="X42" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>94.22</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>479</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>483</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>92</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>50929</v>
       </c>
-      <c r="AC42" s="4" t="s">
+      <c r="AD42" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>88.99</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>214</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>235</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>82.51</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -5157,29 +5286,29 @@
         <v>165.62120159049701</v>
       </c>
       <c r="I43" s="1">
+        <v>1.9603497102534069E-8</v>
+      </c>
+      <c r="J43" s="1">
         <v>1.9603497148152683E-8</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <v>1.8230260127747992E-7</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <v>1.8245500126865032E-7</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <v>1.8225000000000001E-7</v>
       </c>
-      <c r="M43" s="1">
+      <c r="N43" s="1">
         <v>1.6925844686416501E-7</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <v>1.9597412899822901E-7</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>100</v>
       </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
       <c r="Q43">
         <v>0</v>
       </c>
@@ -5187,52 +5316,55 @@
         <v>0</v>
       </c>
       <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
         <v>729</v>
       </c>
-      <c r="T43" s="2">
+      <c r="U43" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U43" s="1">
-        <v>0</v>
-      </c>
-      <c r="V43">
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43">
         <v>43613</v>
       </c>
-      <c r="W43" s="4" t="s">
+      <c r="X43" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>94.22</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>479</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>483</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>92</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>51228</v>
       </c>
-      <c r="AC43" s="4" t="s">
+      <c r="AD43" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>88.44</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>190</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>204</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>82.57</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34">
       <c r="A44" s="4" t="s">
         <v>56</v>
       </c>
@@ -5258,29 +5390,29 @@
         <v>174.55671612962499</v>
       </c>
       <c r="I44" s="1">
+        <v>6.831851713802742E-8</v>
+      </c>
+      <c r="J44" s="1">
         <v>6.8318524032313498E-8</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <v>3.4603944058215386E-7</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="1">
         <v>3.4631290245217401E-7</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <v>3.5199999999999998E-7</v>
       </c>
-      <c r="M44" s="1">
+      <c r="N44" s="1">
         <v>3.33851724457426E-7</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <v>3.7087834250410702E-7</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>100</v>
       </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
       <c r="Q44">
         <v>0</v>
       </c>
@@ -5288,52 +5420,55 @@
         <v>0</v>
       </c>
       <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
         <v>1408</v>
       </c>
-      <c r="T44" s="2">
+      <c r="U44" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U44" s="1">
+      <c r="V44" s="1">
         <v>1.8766898476316799E-266</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>43613</v>
       </c>
-      <c r="W44" s="4" t="s">
+      <c r="X44" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>94.22</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>479</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>483</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>92</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>51418</v>
       </c>
-      <c r="AC44" s="4" t="s">
+      <c r="AD44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>89.3</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>227</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>253</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>82.52</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34">
       <c r="A45" s="4" t="s">
         <v>57</v>
       </c>
@@ -5359,29 +5494,29 @@
         <v>170.175818551937</v>
       </c>
       <c r="I45" s="1">
+        <v>9.48121992242837E-9</v>
+      </c>
+      <c r="J45" s="1">
         <v>9.4812201450143398E-9</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>1.6434593491666221E-7</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>1.6447534119897314E-7</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <v>1.6425000000000001E-7</v>
       </c>
-      <c r="M45" s="1">
+      <c r="N45" s="1">
         <v>1.5192882230495399E-7</v>
       </c>
-      <c r="N45" s="1">
+      <c r="O45" s="1">
         <v>1.7730422960475399E-7</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>100</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
       <c r="Q45">
         <v>0</v>
       </c>
@@ -5389,52 +5524,55 @@
         <v>0</v>
       </c>
       <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <v>657</v>
       </c>
-      <c r="T45" s="2">
+      <c r="U45" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U45" s="1">
+      <c r="V45" s="1">
         <v>1.3036817761285E-59</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>43613</v>
       </c>
-      <c r="W45" s="4" t="s">
+      <c r="X45" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>94.22</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>479</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>483</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>92</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>52010</v>
       </c>
-      <c r="AC45" s="4" t="s">
+      <c r="AD45" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>93.2</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>422</v>
       </c>
-      <c r="AF45">
+      <c r="AG45">
         <v>440</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>97.5</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34">
       <c r="A46" s="4" t="s">
         <v>58</v>
       </c>
@@ -5460,29 +5598,29 @@
         <v>170.16255428719199</v>
       </c>
       <c r="I46" s="1">
+        <v>3.309830219667702E-8</v>
+      </c>
+      <c r="J46" s="1">
         <v>3.3098304156860358E-8</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <v>7.4448611956631709E-7</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>7.4510748069200569E-7</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <v>7.1949999999999995E-7</v>
       </c>
-      <c r="M46" s="1">
+      <c r="N46" s="1">
         <v>6.9345097400666905E-7</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <v>7.4627714967444698E-7</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>100</v>
       </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
       <c r="Q46">
         <v>0</v>
       </c>
@@ -5490,52 +5628,55 @@
         <v>0</v>
       </c>
       <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <v>2878</v>
       </c>
-      <c r="T46" s="2">
+      <c r="U46" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U46" s="1">
+      <c r="V46" s="1">
         <v>9.4589423240346099E-51</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>43613</v>
       </c>
-      <c r="W46" s="4" t="s">
+      <c r="X46" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>94.22</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>479</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>483</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>92</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>52010</v>
       </c>
-      <c r="AC46" s="4" t="s">
+      <c r="AD46" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>93.2</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>422</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>440</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>97.5</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34">
       <c r="A47" s="4" t="s">
         <v>59</v>
       </c>
@@ -5561,29 +5702,29 @@
         <v>10.9841129418406</v>
       </c>
       <c r="I47" s="1">
+        <v>6.8029566860128733E-8</v>
+      </c>
+      <c r="J47" s="1">
         <v>6.8029566612903374E-8</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <v>4.939791667822223E-7</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>4.9440265789581441E-7</v>
       </c>
-      <c r="L47" s="1">
+      <c r="M47" s="1">
         <v>4.735E-7</v>
       </c>
-      <c r="M47" s="1">
+      <c r="N47" s="1">
         <v>4.5241321689722598E-7</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <v>4.9531596008075901E-7</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>100</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
       <c r="Q47">
         <v>0</v>
       </c>
@@ -5591,52 +5732,55 @@
         <v>0</v>
       </c>
       <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
         <v>1894</v>
       </c>
-      <c r="T47" s="2">
+      <c r="U47" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U47" s="1">
+      <c r="V47" s="1">
         <v>2.0401318648859602E-6</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>43613</v>
       </c>
-      <c r="W47" s="4" t="s">
+      <c r="X47" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>94.22</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>479</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>483</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>92</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>53131</v>
       </c>
-      <c r="AC47" s="4" t="s">
+      <c r="AD47" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>92.42</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>373</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>414</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>97.34</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34">
       <c r="A48" s="4" t="s">
         <v>60</v>
       </c>
@@ -5662,29 +5806,29 @@
         <v>4.2782147804607797</v>
       </c>
       <c r="I48" s="1">
+        <v>5.124929283626495E-12</v>
+      </c>
+      <c r="J48" s="1">
         <v>5.1249292835685011E-12</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1">
         <v>3.1098148576535894E-7</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="1">
         <v>3.1119467483957608E-7</v>
       </c>
-      <c r="L48" s="1">
+      <c r="M48" s="1">
         <v>3.1549999999999999E-7</v>
       </c>
-      <c r="M48" s="1">
+      <c r="N48" s="1">
         <v>2.98331119054041E-7</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <v>3.3339931084247998E-7</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>100</v>
       </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
       <c r="Q48">
         <v>0</v>
       </c>
@@ -5692,52 +5836,55 @@
         <v>0</v>
       </c>
       <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
         <v>1262</v>
       </c>
-      <c r="T48" s="2">
+      <c r="U48" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U48" s="1">
+      <c r="V48" s="1">
         <v>2.7892573300396698E-7</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>45121</v>
       </c>
-      <c r="W48" s="4" t="s">
+      <c r="X48" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>88.54</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>198</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>207</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>51.62</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>45957</v>
       </c>
-      <c r="AC48" s="4" t="s">
+      <c r="AD48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>102.21</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>406</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>1320</v>
       </c>
-      <c r="AG48">
+      <c r="AH48">
         <v>51.34</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34">
       <c r="A49" s="4" t="s">
         <v>61</v>
       </c>
@@ -5763,29 +5910,29 @@
         <v>178.074781773702</v>
       </c>
       <c r="I49" s="1">
+        <v>2.1873461300537169E-4</v>
+      </c>
+      <c r="J49" s="1">
         <v>2.1873461518221035E-4</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <v>7.6262085764602515E-5</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>7.6328772298958188E-5</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <v>7.7107692307692299E-5</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49" s="1">
         <v>7.5605573837398204E-5</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <v>7.8632146357135994E-5</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>100</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
       <c r="Q49">
         <v>0</v>
       </c>
@@ -5793,52 +5940,55 @@
         <v>0</v>
       </c>
       <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <v>10024</v>
       </c>
-      <c r="T49" s="2">
+      <c r="U49" s="2">
         <v>130000000</v>
       </c>
-      <c r="U49" s="1">
+      <c r="V49" s="1">
         <v>9.3780718724532498E-29</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>32060</v>
       </c>
-      <c r="W49" s="4" t="s">
+      <c r="X49" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>94.42</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>488</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>493</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>97.39</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>50346</v>
       </c>
-      <c r="AC49" s="4" t="s">
+      <c r="AD49" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>88.48</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>187</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>212</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>82.54</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34">
       <c r="A50" s="4" t="s">
         <v>62</v>
       </c>
@@ -5864,29 +6014,29 @@
         <v>71.695172105171295</v>
       </c>
       <c r="I50" s="1">
+        <v>2.4444742623763111E-5</v>
+      </c>
+      <c r="J50" s="1">
         <v>2.4444742707127534E-5</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1">
         <v>3.9627236821391579E-7</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <v>3.966101159250234E-7</v>
       </c>
-      <c r="L50" s="1">
+      <c r="M50" s="1">
         <v>3.8524999999999999E-7</v>
       </c>
-      <c r="M50" s="1">
+      <c r="N50" s="1">
         <v>3.6625289514046502E-7</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <v>4.0497688698140302E-7</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>100</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
       <c r="Q50">
         <v>0</v>
       </c>
@@ -5894,52 +6044,55 @@
         <v>0</v>
       </c>
       <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
         <v>1541</v>
       </c>
-      <c r="T50" s="2">
+      <c r="U50" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U50" s="1">
+      <c r="V50" s="1">
         <v>1.4608534760920001E-7</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>39574</v>
       </c>
-      <c r="W50" s="4" t="s">
+      <c r="X50" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>92.51</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>390</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>406</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>64.989999999999995</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>39477</v>
       </c>
-      <c r="AC50" s="4" t="s">
+      <c r="AD50" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>269.54000000000002</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>338</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>14550</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>50.79</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34">
       <c r="A51" s="4" t="s">
         <v>63</v>
       </c>
@@ -5965,29 +6118,29 @@
         <v>5.3956581440001701</v>
       </c>
       <c r="I51" s="1">
+        <v>4.7520143737095955E-5</v>
+      </c>
+      <c r="J51" s="1">
         <v>4.7520143737533858E-5</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <v>1.496780358939788E-5</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>1.4979617503403965E-5</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="1">
         <v>1.48238805970149E-5</v>
       </c>
-      <c r="M51" s="1">
+      <c r="N51" s="1">
         <v>1.45337630535751E-5</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <v>1.5118332516271201E-5</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>100</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
       <c r="Q51">
         <v>0</v>
       </c>
@@ -5995,52 +6148,55 @@
         <v>0</v>
       </c>
       <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
         <v>9932</v>
       </c>
-      <c r="T51" s="2">
+      <c r="U51" s="2">
         <v>670000000</v>
       </c>
-      <c r="U51" s="1">
+      <c r="V51" s="1">
         <v>2.6675276774444202E-6</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>40376</v>
       </c>
-      <c r="W51" s="4" t="s">
+      <c r="X51" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>98.4</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>681</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>683</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>98.13</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>54517</v>
       </c>
-      <c r="AC51" s="4" t="s">
+      <c r="AD51" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>99.9</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>667</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>840</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>98.7</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34">
       <c r="A52" s="4" t="s">
         <v>64</v>
       </c>
@@ -6066,82 +6222,85 @@
         <v>1.27234446556392E-3</v>
       </c>
       <c r="I52" s="1">
+        <v>4.5143732461748534E-81</v>
+      </c>
+      <c r="J52" s="1">
         <v>4.5143732396186825E-81</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <v>1.7979607001859226E-11</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <v>1.3099446898632536E-6</v>
       </c>
-      <c r="L52" s="1">
+      <c r="M52" s="1">
         <v>1.342E-6</v>
       </c>
-      <c r="M52" s="1">
+      <c r="N52" s="1">
         <v>1.3063373489881599E-6</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <v>1.37838955951438E-6</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>111</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>11</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
       <c r="R52">
         <v>0</v>
       </c>
       <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
         <v>5368</v>
       </c>
-      <c r="T52" s="2">
+      <c r="U52" s="2">
         <v>4000000000</v>
       </c>
-      <c r="U52" s="1">
+      <c r="V52" s="1">
         <v>1.3133228489722101E-6</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>48901</v>
       </c>
-      <c r="W52" s="4" t="s">
+      <c r="X52" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>94.04</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>467</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>477</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>97.6</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>48903</v>
       </c>
-      <c r="AC52" s="4" t="s">
+      <c r="AD52" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>94.54</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>491</v>
       </c>
-      <c r="AF52">
+      <c r="AG52">
         <v>501</v>
       </c>
-      <c r="AG52">
+      <c r="AH52">
         <v>97.61</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -6167,82 +6326,85 @@
         <v>6.7916769738619001E-2</v>
       </c>
       <c r="I53" s="1">
+        <v>6.4747134418880246E-168</v>
+      </c>
+      <c r="J53" s="1">
         <v>6.4747134479636501E-168</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="1">
         <v>3.9085436066035797E-164</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <v>1.1536896628436228E-5</v>
       </c>
-      <c r="L53" s="1">
+      <c r="M53" s="1">
         <v>1.13275862068966E-5</v>
       </c>
-      <c r="M53" s="1">
+      <c r="N53" s="1">
         <v>1.11050339704906E-5</v>
       </c>
-      <c r="N53" s="1">
+      <c r="O53" s="1">
         <v>1.1553476478085201E-5</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>111</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>101</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>10</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>11</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>9855</v>
       </c>
-      <c r="T53" s="2">
+      <c r="U53" s="2">
         <v>870000000</v>
       </c>
-      <c r="U53" s="1">
+      <c r="V53" s="1">
         <v>1.28416505709793E-5</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>48901</v>
       </c>
-      <c r="W53" s="4" t="s">
+      <c r="X53" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>94.04</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>467</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>477</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>97.6</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>48903</v>
       </c>
-      <c r="AC53" s="4" t="s">
+      <c r="AD53" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <v>94.54</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>491</v>
       </c>
-      <c r="AF53">
+      <c r="AG53">
         <v>501</v>
       </c>
-      <c r="AG53">
+      <c r="AH53">
         <v>97.61</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34">
       <c r="A54" s="4" t="s">
         <v>66</v>
       </c>
@@ -6268,78 +6430,81 @@
         <v>8.0704691930453196E-2</v>
       </c>
       <c r="I54" s="1">
+        <v>3.8634730784361822E-168</v>
+      </c>
+      <c r="J54" s="1">
         <v>3.8634731131805909E-168</v>
       </c>
-      <c r="J54" s="1">
+      <c r="K54" s="1">
         <v>6.4558313747896193E-166</v>
       </c>
-      <c r="K54" s="1">
+      <c r="L54" s="1">
         <v>1.0107345950597645E-5</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <v>1.0150505050505099E-5</v>
       </c>
-      <c r="M54" s="1">
+      <c r="N54" s="1">
         <v>9.9530037078475592E-6</v>
       </c>
-      <c r="N54" s="1">
+      <c r="O54" s="1">
         <v>1.03509397282724E-5</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>111</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>101</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>10</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>11</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>10049</v>
       </c>
-      <c r="T54" s="2">
+      <c r="U54" s="2">
         <v>990000000</v>
       </c>
-      <c r="U54" s="1">
+      <c r="V54" s="1">
         <v>1.0693912264566999E-5</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>48901</v>
       </c>
-      <c r="W54" s="4" t="s">
+      <c r="X54" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>94.04</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>467</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>477</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>97.6</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>48903</v>
       </c>
-      <c r="AC54" s="4" t="s">
+      <c r="AD54" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>94.54</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>491</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>501</v>
       </c>
-      <c r="AG54">
+      <c r="AH54">
         <v>97.61</v>
       </c>
     </row>

--- a/DataFiles/PcTestCaseCDMs/CARA_PcMethod_Test_Conjunctions.xlsx
+++ b/DataFiles/PcTestCaseCDMs/CARA_PcMethod_Test_Conjunctions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LBaars\Git\analysis\SDK\DataFiles\PcTestCaseCDMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6139F277-FC2E-481F-987F-2764F8E4F1DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06F8A61-4BCE-471E-9F86-BF344C5680F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="168">
   <si>
     <t>Primary</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>Pc2D_NoAdj</t>
+  </si>
+  <si>
+    <t>NumSDMCWorkers</t>
   </si>
 </sst>
 </file>
@@ -564,12 +567,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -877,22 +881,23 @@
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" customWidth="1"/>
-    <col min="27" max="27" width="15.28515625" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -957,46 +962,49 @@
         <v>15</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="X1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1021,26 +1029,26 @@
       <c r="H2" s="3">
         <v>22.2150794757478</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>6.1147913740654714E-4</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>6.114793230828587E-4</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>6.1209753075125483E-4</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>6.1262709136015309E-4</v>
       </c>
-      <c r="M2" s="1">
-        <v>6.1775000000000003E-4</v>
-      </c>
-      <c r="N2" s="1">
-        <v>6.0563442748680905E-4</v>
-      </c>
-      <c r="O2" s="1">
-        <v>6.3004685728014302E-4</v>
+      <c r="M2" s="3">
+        <v>6.1112500000000001E-4</v>
+      </c>
+      <c r="N2" s="3">
+        <v>5.990748485437574E-4</v>
+      </c>
+      <c r="O2" s="3">
+        <v>6.2335644193882845E-4</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1055,52 +1063,55 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>9884</v>
+        <v>9778</v>
       </c>
       <c r="U2" s="2">
         <v>16000000</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="5">
+        <v>48</v>
+      </c>
+      <c r="W2" s="1">
         <v>5.9967454041280903E-4</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>20580</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>95.08</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>521</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>524</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>28.47</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>22015</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>93.55</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>428</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>468</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>20.71</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1125,26 +1136,26 @@
       <c r="H3" s="3">
         <v>94.972341726405702</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>2.1172782261112858E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>2.1173811560368256E-2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>2.1173759216088561E-2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>2.1191592654205112E-2</v>
       </c>
-      <c r="M3" s="1">
-        <v>2.1476086956521701E-2</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2.1059094540569999E-2</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2.1899121776879998E-2</v>
+      <c r="M3" s="3">
+        <v>2.1608695652173913E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>2.1190439499234423E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2.203299247280005E-2</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1159,52 +1170,55 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>9879</v>
+        <v>9940</v>
       </c>
       <c r="U3" s="2">
         <v>460000</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="5">
+        <v>48</v>
+      </c>
+      <c r="W3" s="1">
         <v>2.11921953173589E-2</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>25994</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>98.67</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>693</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>697</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>98.08</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>37558</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>98.08</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>629</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>704</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>86.4</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1229,26 +1243,26 @@
       <c r="H4" s="3">
         <v>90.945020293724397</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>2.3236846704222935E-3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>2.3236849651128103E-3</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>2.3236532874563588E-3</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>2.3254865565206046E-3</v>
       </c>
-      <c r="M4" s="1">
-        <v>2.2647727272727299E-3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2.2205706709919801E-3</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2.3096318209279701E-3</v>
+      <c r="M4" s="3">
+        <v>2.3277272727272725E-3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2.2829134965229557E-3</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2.37319797317905E-3</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1263,52 +1277,55 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>9965</v>
+        <v>10242</v>
       </c>
       <c r="U4" s="2">
         <v>4400000</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="5">
+        <v>48</v>
+      </c>
+      <c r="W4" s="1">
         <v>2.3256224929977202E-3</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>28485</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>95.17</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>520</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>534</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>20.56</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>44777</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>95.08</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>518</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>527</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>97.61</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1333,26 +1350,26 @@
       <c r="H5" s="3">
         <v>72.383334838224499</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>1.7606263388028781E-3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>1.7607076292740992E-3</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>1.7607372715931643E-3</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>1.7622342015356227E-3</v>
       </c>
-      <c r="M5" s="1">
-        <v>1.7550877192982501E-3</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1.72089128847415E-3</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1.78979185246552E-3</v>
+      <c r="M5" s="3">
+        <v>1.7750877192982456E-3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.7406963924566127E-3</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1.8099867186036039E-3</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1367,52 +1384,55 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>10004</v>
+        <v>10118</v>
       </c>
       <c r="U5" s="2">
         <v>5700000</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="5">
+        <v>48</v>
+      </c>
+      <c r="W5" s="1">
         <v>1.7620917489446801E-3</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>29108</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>98.32</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>677</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>679</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>98.39</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>34995</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AE5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>97.81</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>628</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>679</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>73.83</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -1437,26 +1457,26 @@
       <c r="H6" s="3">
         <v>144.12776086454801</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>6.5817476549134817E-3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>6.5817682550912563E-3</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>6.581769561402038E-3</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>6.5873701700900041E-3</v>
       </c>
-      <c r="M6" s="1">
-        <v>6.6273333333333297E-3</v>
-      </c>
-      <c r="N6" s="1">
-        <v>6.4981074277359304E-3</v>
-      </c>
-      <c r="O6" s="1">
-        <v>6.7584696771330298E-3</v>
+      <c r="M6" s="3">
+        <v>6.6420000000000003E-3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>6.51263142575975E-3</v>
+      </c>
+      <c r="O6" s="3">
+        <v>6.7732789485503205E-3</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1471,52 +1491,55 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>9941</v>
+        <v>9963</v>
       </c>
       <c r="U6" s="2">
         <v>1500000</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="5">
+        <v>48</v>
+      </c>
+      <c r="W6" s="1">
         <v>6.5275264592510197E-3</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>32060</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>94.42</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>488</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>493</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>97.39</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>44396</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>93.03</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>414</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>432</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>97.64</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1541,26 +1564,26 @@
       <c r="H7" s="3">
         <v>17.191140600646801</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>4.5388449305491388E-3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>4.5388484529517558E-3</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>4.5388537779610782E-3</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>4.5424150498179156E-3</v>
       </c>
-      <c r="M7" s="1">
-        <v>4.5095454545454501E-3</v>
-      </c>
-      <c r="N7" s="1">
-        <v>4.4214345192682596E-3</v>
-      </c>
-      <c r="O7" s="1">
-        <v>4.5989645527155102E-3</v>
+      <c r="M7" s="3">
+        <v>4.5854545454545453E-3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>4.4966048524604828E-3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>4.6756121643321755E-3</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1575,52 +1598,55 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>9921</v>
+        <v>10088</v>
       </c>
       <c r="U7" s="2">
         <v>2200000</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="5">
+        <v>48</v>
+      </c>
+      <c r="W7" s="1">
         <v>4.5425232686028402E-3</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>33591</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>101.92</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>840</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>859</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>99.09</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>42216</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AE7" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>101.81</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>830</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>858</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>82.89</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -1645,26 +1671,26 @@
       <c r="H8" s="3">
         <v>138.46823094682199</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>1.0489561620298779E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>1.0491820807529178E-2</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <v>1.049180313659628E-2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="3">
         <v>1.050078954279955E-2</v>
       </c>
-      <c r="M8" s="1">
-        <v>1.03863157894737E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1.01834148725335E-2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1.05922102608979E-2</v>
+      <c r="M8" s="3">
+        <v>1.0608421052631579E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.0403374293120006E-2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1.081645990253584E-2</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1679,52 +1705,55 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>9867</v>
+        <v>10078</v>
       </c>
       <c r="U8" s="2">
         <v>950000</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="5">
+        <v>48</v>
+      </c>
+      <c r="W8" s="1">
         <v>1.0493579328095999E-2</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>37849</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>101.44</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>826</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>827</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>98.71</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>13512</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AE8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>101.21</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>792</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>840</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>65.48</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1749,26 +1778,26 @@
       <c r="H9" s="3">
         <v>10.7348536464402</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>1.5591403487380158E-3</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <v>1.5591439922686598E-3</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="3">
         <v>1.5591930759917224E-3</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="3">
         <v>1.5604382958264744E-3</v>
       </c>
-      <c r="M9" s="1">
-        <v>1.52296875E-3</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1.49290480714669E-3</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1.5534850956955199E-3</v>
+      <c r="M9" s="3">
+        <v>1.5673437499999999E-3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.5368434855011789E-3</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1.5982963552663189E-3</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1783,52 +1812,55 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>9747</v>
+        <v>10031</v>
       </c>
       <c r="U9" s="2">
         <v>6400000</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="5">
+        <v>48</v>
+      </c>
+      <c r="W9" s="1">
         <v>1.5602155781275699E-3</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>38771</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>101.3</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>819</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>821</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>98.66</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>30802</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AE9" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>101.31</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>803</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>838</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>98.88</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1853,26 +1885,26 @@
       <c r="H10" s="3">
         <v>30.261069940998201</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>7.8614328950869078E-4</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <v>7.861435351036993E-4</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <v>7.8617971351962221E-4</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="3">
         <v>7.8684043236151727E-4</v>
       </c>
-      <c r="M10" s="1">
-        <v>7.8807692307692303E-4</v>
-      </c>
-      <c r="N10" s="1">
-        <v>7.7289552241397103E-4</v>
-      </c>
-      <c r="O10" s="1">
-        <v>8.0348135400747501E-4</v>
+      <c r="M10" s="3">
+        <v>7.9530769230769227E-4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>7.8005652450315369E-4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>8.1078188377728226E-4</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1887,52 +1919,55 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>10245</v>
+        <v>10339</v>
       </c>
       <c r="U10" s="2">
         <v>13000000</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="5">
+        <v>48</v>
+      </c>
+      <c r="W10" s="1">
         <v>7.8746449597598899E-4</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>40059</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>98.83</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>702</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>703</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>98.21</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>35921</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>99.72</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>670</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>821</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>86.41</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1957,26 +1992,26 @@
       <c r="H11" s="3">
         <v>144.35744773987199</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>2.4518452764294512E-3</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <v>2.4518459608000578E-3</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
         <v>2.4520277235488448E-3</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="3">
         <v>2.4540715173742441E-3</v>
       </c>
-      <c r="M11" s="1">
-        <v>2.4402500000000001E-3</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2.3921345559061299E-3</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2.4890879560724799E-3</v>
+      <c r="M11" s="3">
+        <v>2.4835E-3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2.4349589842068667E-3</v>
+      </c>
+      <c r="O11" s="3">
+        <v>2.5327634434738262E-3</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1991,52 +2026,55 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>9761</v>
+        <v>9934</v>
       </c>
       <c r="U11" s="2">
         <v>4000000</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="5">
+        <v>48</v>
+      </c>
+      <c r="W11" s="1">
         <v>2.42923295071814E-3</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>41848</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Y11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>91.16</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>325</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>338</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>97.81</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>44431</v>
       </c>
-      <c r="AD11" s="4" t="s">
+      <c r="AE11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>91.21</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>332</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>336</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>51.63</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -2074,13 +2112,13 @@
         <v>1.29505612815583E-4</v>
       </c>
       <c r="M12" s="1">
-        <v>1.31269230769231E-4</v>
+        <v>1.2993589743589743E-4</v>
       </c>
       <c r="N12" s="1">
-        <v>1.2873893085156999E-4</v>
+        <v>1.2741854111624246E-4</v>
       </c>
       <c r="O12" s="1">
-        <v>1.3383675130366999E-4</v>
+        <v>1.3249047510409536E-4</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2095,52 +2133,55 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>10239</v>
+        <v>10135</v>
       </c>
       <c r="U12" s="2">
         <v>78000000</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="5">
+        <v>48</v>
+      </c>
+      <c r="W12" s="1">
         <v>1.2609306506170201E-4</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>43477</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="Y12" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>94.3</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>477</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>492</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>88.99</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>46952</v>
       </c>
-      <c r="AD12" s="4" t="s">
+      <c r="AE12" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>94.55</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>487</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>507</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>97.4</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -2178,13 +2219,13 @@
         <v>1.6020385312449925E-4</v>
       </c>
       <c r="M13" s="1">
-        <v>1.6177419354838701E-4</v>
+        <v>1.5716129032258065E-4</v>
       </c>
       <c r="N13" s="1">
-        <v>1.5862377336064401E-4</v>
+        <v>1.5405632424312502E-4</v>
       </c>
       <c r="O13" s="1">
-        <v>1.6497143842961301E-4</v>
+        <v>1.6031308381614113E-4</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2199,52 +2240,55 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>10030</v>
+        <v>9744</v>
       </c>
       <c r="U13" s="2">
         <v>62000000</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="5">
+        <v>48</v>
+      </c>
+      <c r="W13" s="1">
         <v>1.6619254370772401E-4</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>44628</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="Y13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>96.23</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>566</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>590</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>26.99</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>27127</v>
       </c>
-      <c r="AD13" s="4" t="s">
+      <c r="AE13" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>94.96</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>500</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>533</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>97.66</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -2282,13 +2326,13 @@
         <v>1.0350768372283169E-5</v>
       </c>
       <c r="M14" s="1">
-        <v>1.04916666666667E-5</v>
+        <v>1.015625E-5</v>
       </c>
       <c r="N14" s="1">
-        <v>1.0287759359971301E-5</v>
+        <v>9.9556445269320259E-6</v>
       </c>
       <c r="O14" s="1">
-        <v>1.0698598961548601E-5</v>
+        <v>1.035988062914957E-5</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2303,52 +2347,55 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>10072</v>
+        <v>9750</v>
       </c>
       <c r="U14" s="2">
         <v>960000000</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="5">
+        <v>48</v>
+      </c>
+      <c r="W14" s="1">
         <v>1.0350264457593E-5</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>27424</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="Y14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>98.74</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>697</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>699</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>98.3</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>48164</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AE14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>100.13</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>713</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>817</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>98.41</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -2386,13 +2433,13 @@
         <v>5.0020694811676114E-3</v>
       </c>
       <c r="M15" s="1">
-        <v>4.993E-3</v>
+        <v>5.0239999999999998E-3</v>
       </c>
       <c r="N15" s="1">
-        <v>4.8957824868373096E-3</v>
+        <v>4.9264811876992345E-3</v>
       </c>
       <c r="O15" s="1">
-        <v>5.0916550735793696E-3</v>
+        <v>5.1229562676953751E-3</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2407,52 +2454,55 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>9986</v>
+        <v>10048</v>
       </c>
       <c r="U15" s="2">
         <v>2000000</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="5">
+        <v>48</v>
+      </c>
+      <c r="W15" s="1">
         <v>5.0020779282637E-3</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>28654</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>101.91</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>838</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>860</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>98.9</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>41835</v>
       </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AE15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>101.32</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>806</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>836</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>98.93</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -2490,13 +2540,13 @@
         <v>2.9002543011130321E-5</v>
       </c>
       <c r="M16" s="1">
-        <v>2.9288235294117599E-5</v>
+        <v>2.8888235294117647E-5</v>
       </c>
       <c r="N16" s="1">
-        <v>2.8715785646631199E-5</v>
+        <v>2.831972719984423E-5</v>
       </c>
       <c r="O16" s="1">
-        <v>2.9869225927075301E-5</v>
+        <v>2.9465284579091327E-5</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2511,52 +2561,55 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>9958</v>
+        <v>9822</v>
       </c>
       <c r="U16" s="2">
         <v>340000000</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="5">
+        <v>48</v>
+      </c>
+      <c r="W16" s="1">
         <v>2.8609841039763E-5</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>28654</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="Y16" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>101.91</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>838</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>860</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>98.9</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>42397</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AE16" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>101.27</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>786</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>852</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>98.76</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -2594,13 +2647,13 @@
         <v>2.3684421500037458E-5</v>
       </c>
       <c r="M17" s="1">
-        <v>2.3876744186046499E-5</v>
+        <v>2.3595348837209302E-5</v>
       </c>
       <c r="N17" s="1">
-        <v>2.3417105296068298E-5</v>
+        <v>2.3138439469809435E-5</v>
       </c>
       <c r="O17" s="1">
-        <v>2.43431361416222E-5</v>
+        <v>2.4059011407145286E-5</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2615,52 +2668,55 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>10267</v>
+        <v>10146</v>
       </c>
       <c r="U17" s="2">
         <v>430000000</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="5">
+        <v>48</v>
+      </c>
+      <c r="W17" s="1">
         <v>2.3764658687213901E-5</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>32060</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="Y17" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>94.42</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>488</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>493</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>97.39</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>53480</v>
       </c>
-      <c r="AD17" s="4" t="s">
+      <c r="AE17" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>95.92</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>562</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>564</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>97.66</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -2698,13 +2754,13 @@
         <v>1.0722646468728138E-4</v>
       </c>
       <c r="M18" s="1">
-        <v>1.0680645161290301E-4</v>
+        <v>1.0509677419354839E-4</v>
       </c>
       <c r="N18" s="1">
-        <v>1.04716345519583E-4</v>
+        <v>1.0302354436593787E-4</v>
       </c>
       <c r="O18" s="1">
-        <v>1.08927778109004E-4</v>
+        <v>1.0720122538325375E-4</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2719,52 +2775,55 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>9933</v>
+        <v>9774</v>
       </c>
       <c r="U18" s="2">
         <v>93000000</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="5">
+        <v>48</v>
+      </c>
+      <c r="W18" s="1">
         <v>1.0726794103756E-4</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>40115</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="Y18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>96.96</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>612</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>614</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>97.83</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>30660</v>
       </c>
-      <c r="AD18" s="4" t="s">
+      <c r="AE18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>97.88</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>532</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>782</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>98.19</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -2802,13 +2861,13 @@
         <v>1.3553751968724241E-5</v>
       </c>
       <c r="M19" s="1">
-        <v>1.33972972972973E-5</v>
+        <v>1.3594594594594595E-5</v>
       </c>
       <c r="N19" s="1">
-        <v>1.3134862419905601E-5</v>
+        <v>1.3330224991428807E-5</v>
       </c>
       <c r="O19" s="1">
-        <v>1.3663656565175699E-5</v>
+        <v>1.3862888490257091E-5</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2823,52 +2882,55 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>9914</v>
+        <v>10060</v>
       </c>
       <c r="U19" s="2">
         <v>740000000</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="5">
+        <v>48</v>
+      </c>
+      <c r="W19" s="1">
         <v>1.3524827812863499E-5</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>48901</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="Y19" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>94.04</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>467</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>477</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>97.6</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>48954</v>
       </c>
-      <c r="AD19" s="4" t="s">
+      <c r="AE19" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>94.54</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>489</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>503</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>97.61</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
@@ -2906,13 +2968,13 @@
         <v>1.0812739998130439E-4</v>
       </c>
       <c r="M20" s="1">
-        <v>1.08760869565217E-4</v>
+        <v>1.0694565217391305E-4</v>
       </c>
       <c r="N20" s="1">
-        <v>1.06640259460641E-4</v>
+        <v>1.0484289767542505E-4</v>
       </c>
       <c r="O20" s="1">
-        <v>1.10913038912666E-4</v>
+        <v>1.0907996692562582E-4</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2927,52 +2989,55 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>10006</v>
+        <v>9839</v>
       </c>
       <c r="U20" s="2">
         <v>92000000</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="5">
+        <v>48</v>
+      </c>
+      <c r="W20" s="1">
         <v>4.0983120500140699E-20</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>25994</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="Y20" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>98.67</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>693</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>697</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>98.08</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>26980</v>
       </c>
-      <c r="AD20" s="4" t="s">
+      <c r="AE20" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>97.83</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>615</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>694</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>71.11</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -3010,13 +3075,13 @@
         <v>2.5490192125936489E-4</v>
       </c>
       <c r="M21" s="1">
-        <v>2.5457499999999999E-4</v>
+        <v>2.5532499999999999E-4</v>
       </c>
       <c r="N21" s="1">
-        <v>2.49654787680344E-4</v>
+        <v>2.5039751218742471E-4</v>
       </c>
       <c r="O21" s="1">
-        <v>2.5956777529384702E-4</v>
+        <v>2.6032505032278522E-4</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3031,52 +3096,55 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>10183</v>
+        <v>10213</v>
       </c>
       <c r="U21" s="2">
         <v>40000000</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="5">
+        <v>48</v>
+      </c>
+      <c r="W21" s="1">
         <v>9.0107686496439497E-16</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>27424</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="Y21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>98.74</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>697</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>699</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>98.3</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>41740</v>
       </c>
-      <c r="AD21" s="4" t="s">
+      <c r="AE21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>92.37</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>367</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>414</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>98.47</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -3114,13 +3182,13 @@
         <v>1.7728101017819504E-4</v>
       </c>
       <c r="M22" s="1">
-        <v>1.7552631578947401E-4</v>
+        <v>1.7701754385964912E-4</v>
       </c>
       <c r="N22" s="1">
-        <v>1.72103860011602E-4</v>
+        <v>1.7358051253248488E-4</v>
       </c>
       <c r="O22" s="1">
-        <v>1.78999702503206E-4</v>
+        <v>1.8050550524866568E-4</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3135,52 +3203,55 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>10005</v>
+        <v>10090</v>
       </c>
       <c r="U22" s="2">
         <v>57000000</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="5">
+        <v>48</v>
+      </c>
+      <c r="W22" s="1">
         <v>3.16181718105645E-11</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>32060</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="Y22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>94.42</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>488</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>493</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>97.39</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>35644</v>
       </c>
-      <c r="AD22" s="4" t="s">
+      <c r="AE22" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>95.33</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>522</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>547</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23" s="4" t="s">
         <v>159</v>
       </c>
@@ -3218,13 +3289,13 @@
         <v>1.2171318972798205E-3</v>
       </c>
       <c r="M23" s="1">
-        <v>1.2074390243902401E-3</v>
+        <v>1.2158536585365853E-3</v>
       </c>
       <c r="N23" s="1">
-        <v>1.1837852908430299E-3</v>
+        <v>1.1921173424689854E-3</v>
       </c>
       <c r="O23" s="1">
-        <v>1.23144606683266E-3</v>
+        <v>1.2399432734387335E-3</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3239,52 +3310,55 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>9901</v>
+        <v>9970</v>
       </c>
       <c r="U23" s="2">
         <v>8200000</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="5">
+        <v>48</v>
+      </c>
+      <c r="W23" s="1">
         <v>1.21713526670285E-3</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>25994</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="Y23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>98.67</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>693</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>697</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>98.08</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>26132</v>
       </c>
-      <c r="AD23" s="4" t="s">
+      <c r="AE23" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>99.88</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>662</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>844</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>98.69</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24" s="4" t="s">
         <v>162</v>
       </c>
@@ -3322,13 +3396,13 @@
         <v>3.7135049557175796E-5</v>
       </c>
       <c r="M24" s="1">
-        <v>3.6814814814814799E-5</v>
+        <v>3.6548148148148151E-5</v>
       </c>
       <c r="N24" s="1">
-        <v>3.6094609928877197E-5</v>
+        <v>3.5830569065941837E-5</v>
       </c>
       <c r="O24" s="1">
-        <v>3.7545774886775799E-5</v>
+        <v>3.7276482554093052E-5</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3343,52 +3417,55 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>9940</v>
+        <v>9868</v>
       </c>
       <c r="U24" s="2">
         <v>270000000</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24" s="5">
+        <v>48</v>
+      </c>
+      <c r="W24" s="1">
         <v>3.7135113498505702E-5</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>27424</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="Y24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>98.74</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>697</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>699</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>98.3</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>31201</v>
       </c>
-      <c r="AD24" s="4" t="s">
+      <c r="AE24" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>100.72</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>684</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>902</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>99.05</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25" s="4" t="s">
         <v>163</v>
       </c>
@@ -3426,13 +3503,13 @@
         <v>1.5394905160723084E-4</v>
       </c>
       <c r="M25" s="1">
-        <v>1.51476923076923E-4</v>
+        <v>1.5155384615384615E-4</v>
       </c>
       <c r="N25" s="1">
-        <v>1.48499717642343E-4</v>
+        <v>1.4857588127412311E-4</v>
       </c>
       <c r="O25" s="1">
-        <v>1.5449879437839199E-4</v>
+        <v>1.5457647685520261E-4</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3447,52 +3524,55 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>9846</v>
+        <v>9851</v>
       </c>
       <c r="U25" s="2">
         <v>65000000</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25" s="5">
+        <v>48</v>
+      </c>
+      <c r="W25" s="1">
         <v>1.53952145721854E-4</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>54234</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="Y25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>101.44</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>826</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>827</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>98.75</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>28343</v>
       </c>
-      <c r="AD25" s="4" t="s">
+      <c r="AE25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>101.11</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>759</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>863</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>98.92</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3530,13 +3610,13 @@
         <v>1.5211147154089839E-4</v>
       </c>
       <c r="M26" s="1">
-        <v>1.5178787878787899E-4</v>
+        <v>1.5056060606060605E-4</v>
       </c>
       <c r="N26" s="1">
-        <v>1.4883015826960399E-4</v>
+        <v>1.4761492359038428E-4</v>
       </c>
       <c r="O26" s="1">
-        <v>1.54789587105932E-4</v>
+        <v>1.5355027703915151E-4</v>
       </c>
       <c r="P26">
         <v>100</v>
@@ -3551,52 +3631,55 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>10018</v>
+        <v>9937</v>
       </c>
       <c r="U26" s="2">
         <v>66000000</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="5">
+        <v>48</v>
+      </c>
+      <c r="W26" s="1">
         <v>1.2735707029955199E-4</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>35946</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="Y26" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>100.17</v>
-      </c>
-      <c r="Z26">
-        <v>767</v>
       </c>
       <c r="AA26">
         <v>767</v>
       </c>
       <c r="AB26">
+        <v>767</v>
+      </c>
+      <c r="AC26">
         <v>98.44</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>30648</v>
       </c>
-      <c r="AD26" s="4" t="s">
+      <c r="AE26" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>100.61</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>757</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>819</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>98.67</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3634,13 +3717,13 @@
         <v>1.4433627049810933E-4</v>
       </c>
       <c r="M27" s="1">
-        <v>1.44957142857143E-4</v>
+        <v>1.4418571428571428E-4</v>
       </c>
       <c r="N27" s="1">
-        <v>1.4215044108820601E-4</v>
+        <v>1.4138652589012891E-4</v>
       </c>
       <c r="O27" s="1">
-        <v>1.4780531851575599E-4</v>
+        <v>1.4702637700453631E-4</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -3655,52 +3738,55 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>10147</v>
+        <v>10093</v>
       </c>
       <c r="U27" s="2">
         <v>70000000</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V27" s="5">
+        <v>48</v>
+      </c>
+      <c r="W27" s="1">
         <v>1.8286782615783199E-28</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>32060</v>
       </c>
-      <c r="X27" s="4" t="s">
+      <c r="Y27" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>94.42</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>488</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>493</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>97.39</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>49574</v>
       </c>
-      <c r="AD27" s="4" t="s">
+      <c r="AE27" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>89.66</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>248</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>267</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>81.7</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3738,13 +3824,13 @@
         <v>4.733902350118532E-5</v>
       </c>
       <c r="M28" s="1">
-        <v>4.78952380952381E-5</v>
+        <v>4.6457142857142856E-5</v>
       </c>
       <c r="N28" s="1">
-        <v>4.6963758612454997E-5</v>
+        <v>4.5539821983874052E-5</v>
       </c>
       <c r="O28" s="1">
-        <v>4.8840545093949802E-5</v>
+        <v>4.7388291997613474E-5</v>
       </c>
       <c r="P28">
         <v>100</v>
@@ -3759,52 +3845,55 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>10058</v>
+        <v>9756</v>
       </c>
       <c r="U28" s="2">
         <v>210000000</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V28" s="5">
+        <v>48</v>
+      </c>
+      <c r="W28" s="1">
         <v>2.6239136889865699E-5</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>20580</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="Y28" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>95.08</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>521</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>524</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>28.47</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>2017</v>
       </c>
-      <c r="AD28" s="4" t="s">
+      <c r="AE28" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>111.92</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>495</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>2135</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>34.07</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3842,13 +3931,13 @@
         <v>1.6618182396425853E-5</v>
       </c>
       <c r="M29" s="1">
-        <v>1.6483333333333301E-5</v>
+        <v>1.6728333333333334E-5</v>
       </c>
       <c r="N29" s="1">
-        <v>1.61600580661086E-5</v>
+        <v>1.640265273978709E-5</v>
       </c>
       <c r="O29" s="1">
-        <v>1.68114486721111E-5</v>
+        <v>1.7058853875879384E-5</v>
       </c>
       <c r="P29">
         <v>100</v>
@@ -3863,52 +3952,55 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>9890</v>
+        <v>10037</v>
       </c>
       <c r="U29" s="2">
         <v>600000000</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V29" s="5">
+        <v>48</v>
+      </c>
+      <c r="W29" s="1">
         <v>1.3787488027671901E-5</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>29108</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="Y29" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>98.32</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>677</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>679</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>98.39</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>40337</v>
       </c>
-      <c r="AD29" s="4" t="s">
+      <c r="AE29" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>96.34</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>471</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>696</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>98.51</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3946,13 +4038,13 @@
         <v>3.4582652203187895E-5</v>
       </c>
       <c r="M30" s="1">
-        <v>3.4903448275862097E-5</v>
+        <v>3.4186206896551724E-5</v>
       </c>
       <c r="N30" s="1">
-        <v>3.42267713419441E-5</v>
+        <v>3.3516552274697656E-5</v>
       </c>
       <c r="O30" s="1">
-        <v>3.5590138392330801E-5</v>
+        <v>3.4865875064287862E-5</v>
       </c>
       <c r="P30">
         <v>100</v>
@@ -3967,52 +4059,55 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>10122</v>
+        <v>9914</v>
       </c>
       <c r="U30" s="2">
         <v>290000000</v>
       </c>
-      <c r="V30" s="1">
+      <c r="V30" s="5">
+        <v>48</v>
+      </c>
+      <c r="W30" s="1">
         <v>1.2615858871579101E-5</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>39574</v>
       </c>
-      <c r="X30" s="4" t="s">
+      <c r="Y30" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>92.51</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>390</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>406</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>64.989999999999995</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>45957</v>
       </c>
-      <c r="AD30" s="4" t="s">
+      <c r="AE30" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>102.21</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>406</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1320</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>51.34</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -4050,13 +4145,13 @@
         <v>1.7212285954918261E-6</v>
       </c>
       <c r="M31" s="1">
-        <v>1.7002499999999999E-6</v>
+        <v>1.7022500000000001E-6</v>
       </c>
       <c r="N31" s="1">
-        <v>1.66007862894645E-6</v>
+        <v>1.6620548694089878E-6</v>
       </c>
       <c r="O31" s="1">
-        <v>1.74114790803293E-6</v>
+        <v>1.7431716658309854E-6</v>
       </c>
       <c r="P31">
         <v>100</v>
@@ -4071,52 +4166,55 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>6801</v>
+        <v>6809</v>
       </c>
       <c r="U31" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V31" s="1">
+      <c r="V31" s="5">
+        <v>48</v>
+      </c>
+      <c r="W31" s="1">
         <v>4.4709296536782198E-8</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>30580</v>
       </c>
-      <c r="X31" s="4" t="s">
+      <c r="Y31" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1639.45</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>1348</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>78009</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>11.03</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>19175</v>
       </c>
-      <c r="AD31" s="4" t="s">
+      <c r="AE31" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>110.05</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>985</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1473</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>82.36</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -4154,13 +4252,13 @@
         <v>3.2675410665606885E-6</v>
       </c>
       <c r="M32" s="1">
-        <v>3.21645161290323E-6</v>
+        <v>3.2470967741935485E-6</v>
       </c>
       <c r="N32" s="1">
-        <v>3.1536248450788499E-6</v>
+        <v>3.1839699649363291E-6</v>
       </c>
       <c r="O32" s="1">
-        <v>3.2802151807270401E-6</v>
+        <v>3.3111603684834411E-6</v>
       </c>
       <c r="P32">
         <v>100</v>
@@ -4175,52 +4273,55 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>9971</v>
+        <v>10066</v>
       </c>
       <c r="U32" s="2">
         <v>3100000000</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V32" s="5">
+        <v>48</v>
+      </c>
+      <c r="W32" s="1">
         <v>7.2239534227273205E-16</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>43613</v>
       </c>
-      <c r="X32" s="4" t="s">
+      <c r="Y32" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>94.22</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>479</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>483</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>92</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>48526</v>
       </c>
-      <c r="AD32" s="4" t="s">
+      <c r="AE32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>93.92</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>454</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>478</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>98.18</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -4258,13 +4359,13 @@
         <v>3.314609580397408E-6</v>
       </c>
       <c r="M33" s="1">
-        <v>3.2480000000000001E-6</v>
+        <v>3.3043333333333333E-6</v>
       </c>
       <c r="N33" s="1">
-        <v>3.1838258849006999E-6</v>
+        <v>3.2396023591230756E-6</v>
       </c>
       <c r="O33" s="1">
-        <v>3.3131421794242698E-6</v>
+        <v>3.3700323435541828E-6</v>
       </c>
       <c r="P33">
         <v>100</v>
@@ -4279,52 +4380,55 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>9744</v>
+        <v>9913</v>
       </c>
       <c r="U33" s="2">
         <v>3000000000</v>
       </c>
-      <c r="V33" s="1">
+      <c r="V33" s="5">
+        <v>48</v>
+      </c>
+      <c r="W33" s="1">
         <v>1.25627606369437E-13</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>43613</v>
       </c>
-      <c r="X33" s="4" t="s">
+      <c r="Y33" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>94.22</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>479</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>483</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>92</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>50564</v>
       </c>
-      <c r="AD33" s="4" t="s">
+      <c r="AE33" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>88.44</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>189</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>206</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>82.49</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -4362,13 +4466,13 @@
         <v>1.4217820747509373E-6</v>
       </c>
       <c r="M34" s="1">
-        <v>1.4407499999999999E-6</v>
+        <v>1.42475E-6</v>
       </c>
       <c r="N34" s="1">
-        <v>1.40378994046036E-6</v>
+        <v>1.3879970640706322E-6</v>
       </c>
       <c r="O34" s="1">
-        <v>1.4784368519512901E-6</v>
+        <v>1.4622297463306212E-6</v>
       </c>
       <c r="P34">
         <v>100</v>
@@ -4383,52 +4487,55 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>5763</v>
+        <v>5699</v>
       </c>
       <c r="U34" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V34" s="5">
+        <v>48</v>
+      </c>
+      <c r="W34" s="1">
         <v>1.7524439421120499E-171</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>43613</v>
       </c>
-      <c r="X34" s="4" t="s">
+      <c r="Y34" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>94.22</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>479</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>483</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>92</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>50666</v>
       </c>
-      <c r="AD34" s="4" t="s">
+      <c r="AE34" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>89.13</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>224</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>239</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>82.55</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4466,13 +4573,13 @@
         <v>2.2842262273768086E-6</v>
       </c>
       <c r="M35" s="1">
-        <v>2.328E-6</v>
+        <v>2.306E-6</v>
       </c>
       <c r="N35" s="1">
-        <v>2.28095374829512E-6</v>
+        <v>2.2591776983650256E-6</v>
       </c>
       <c r="O35" s="1">
-        <v>2.3757723579476302E-6</v>
+        <v>2.3535484199370162E-6</v>
       </c>
       <c r="P35">
         <v>100</v>
@@ -4487,52 +4594,55 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>9312</v>
+        <v>9224</v>
       </c>
       <c r="U35" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V35" s="1">
+      <c r="V35" s="5">
+        <v>48</v>
+      </c>
+      <c r="W35" s="1">
         <v>7.2276135185865402E-210</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>43613</v>
       </c>
-      <c r="X35" s="4" t="s">
+      <c r="Y35" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>94.22</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>479</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>483</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>92</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>50710</v>
       </c>
-      <c r="AD35" s="4" t="s">
+      <c r="AE35" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>88.34</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>182</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>202</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>82.54</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4570,13 +4680,13 @@
         <v>1.367381437106992E-6</v>
       </c>
       <c r="M36" s="1">
-        <v>1.3585E-6</v>
+        <v>1.37125E-6</v>
       </c>
       <c r="N36" s="1">
-        <v>1.3226173237843901E-6</v>
+        <v>1.3351982180218285E-6</v>
       </c>
       <c r="O36" s="1">
-        <v>1.3951095644461301E-6</v>
+        <v>1.408028654794406E-6</v>
       </c>
       <c r="P36">
         <v>100</v>
@@ -4591,52 +4701,55 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5434</v>
+        <v>5485</v>
       </c>
       <c r="U36" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V36" s="1">
+      <c r="V36" s="5">
+        <v>48</v>
+      </c>
+      <c r="W36" s="1">
         <v>1.6171527264276599E-10</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>45121</v>
       </c>
-      <c r="X36" s="4" t="s">
+      <c r="Y36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>88.54</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>198</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>207</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>51.62</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>14729</v>
       </c>
-      <c r="AD36" s="4" t="s">
+      <c r="AE36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>105.74</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>396</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>1662</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>63.3</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4674,13 +4787,13 @@
         <v>5.6711063774664068E-7</v>
       </c>
       <c r="M37" s="1">
-        <v>5.7975000000000004E-7</v>
+        <v>5.7675000000000003E-7</v>
       </c>
       <c r="N37" s="1">
-        <v>5.5639159202022903E-7</v>
+        <v>5.5345272367135471E-7</v>
       </c>
       <c r="O37" s="1">
-        <v>6.0383704808603597E-7</v>
+        <v>6.0077592953278114E-7</v>
       </c>
       <c r="P37">
         <v>100</v>
@@ -4695,52 +4808,55 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2319</v>
+        <v>2307</v>
       </c>
       <c r="U37" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V37" s="1">
+      <c r="V37" s="5">
+        <v>48</v>
+      </c>
+      <c r="W37" s="1">
         <v>6.7343519858232102E-9</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>29479</v>
       </c>
-      <c r="X37" s="4" t="s">
+      <c r="Y37" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>98.24</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>661</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>688</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>98.1</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>42794</v>
       </c>
-      <c r="AD37" s="4" t="s">
+      <c r="AE37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>96.19</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>498</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>654</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>97.48</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4778,13 +4894,13 @@
         <v>4.7307253173559254E-7</v>
       </c>
       <c r="M38" s="1">
-        <v>4.7975000000000004E-7</v>
+        <v>4.7450000000000002E-7</v>
       </c>
       <c r="N38" s="1">
-        <v>4.5852293572324698E-7</v>
+        <v>4.533907099580726E-7</v>
       </c>
       <c r="O38" s="1">
-        <v>5.0170620482770403E-7</v>
+        <v>4.9633846114343877E-7</v>
       </c>
       <c r="P38">
         <v>100</v>
@@ -4799,52 +4915,55 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>1919</v>
+        <v>1898</v>
       </c>
       <c r="U38" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V38" s="1">
+      <c r="V38" s="5">
+        <v>48</v>
+      </c>
+      <c r="W38" s="1">
         <v>6.8522557811936299E-7</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>29479</v>
       </c>
-      <c r="X38" s="4" t="s">
+      <c r="Y38" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>98.24</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>661</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>688</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>98.1</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>54630</v>
       </c>
-      <c r="AD38" s="4" t="s">
+      <c r="AE38" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>99.95</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>673</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>839</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>98.7</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4882,13 +5001,13 @@
         <v>2.1208977466736348E-7</v>
       </c>
       <c r="M39" s="1">
-        <v>1.9649999999999999E-7</v>
+        <v>2.1150000000000001E-7</v>
       </c>
       <c r="N39" s="1">
-        <v>1.83000916523078E-7</v>
+        <v>1.9748618814393289E-7</v>
       </c>
       <c r="O39" s="1">
-        <v>2.1073132956496E-7</v>
+        <v>2.2624574728075789E-7</v>
       </c>
       <c r="P39">
         <v>100</v>
@@ -4903,52 +5022,55 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>786</v>
+        <v>846</v>
       </c>
       <c r="U39" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39">
+      <c r="V39" s="5">
+        <v>48</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39">
         <v>33331</v>
       </c>
-      <c r="X39" s="4" t="s">
+      <c r="Y39" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>98.33</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>674</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>684</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>98.08</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>49571</v>
       </c>
-      <c r="AD39" s="4" t="s">
+      <c r="AE39" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>88.82</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>202</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>230</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>81.93</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4986,13 +5108,13 @@
         <v>1.7004194227970119E-7</v>
       </c>
       <c r="M40" s="1">
-        <v>1.6850000000000001E-7</v>
+        <v>1.7125E-7</v>
       </c>
       <c r="N40" s="1">
-        <v>1.5601735255555601E-7</v>
+        <v>1.5866395555504538E-7</v>
       </c>
       <c r="O40" s="1">
-        <v>1.8171558014735101E-7</v>
+        <v>1.8456890237568043E-7</v>
       </c>
       <c r="P40">
         <v>100</v>
@@ -5007,52 +5129,55 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="U40" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V40" s="1">
+      <c r="V40" s="5">
+        <v>48</v>
+      </c>
+      <c r="W40" s="1">
         <v>1.61167666220754E-6</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>43613</v>
       </c>
-      <c r="X40" s="4" t="s">
+      <c r="Y40" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>94.22</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>479</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>483</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>92</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>43712</v>
       </c>
-      <c r="AD40" s="4" t="s">
+      <c r="AE40" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>93.38</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>433</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>447</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>97.38</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -5090,13 +5215,13 @@
         <v>1.1041983731801898E-7</v>
       </c>
       <c r="M41" s="1">
-        <v>1.0125E-7</v>
+        <v>1.1025E-7</v>
       </c>
       <c r="N41" s="1">
-        <v>9.1627790888561806E-8</v>
+        <v>1.001987828645961E-7</v>
       </c>
       <c r="O41" s="1">
-        <v>1.11607824478391E-7</v>
+        <v>1.2103633621167322E-7</v>
       </c>
       <c r="P41">
         <v>100</v>
@@ -5111,52 +5236,55 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="U41" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
-      <c r="W41">
+      <c r="V41" s="5">
+        <v>48</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41">
         <v>43613</v>
       </c>
-      <c r="X41" s="4" t="s">
+      <c r="Y41" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>94.22</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>479</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>483</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>92</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>49557</v>
       </c>
-      <c r="AD41" s="4" t="s">
+      <c r="AE41" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>88.02</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>170</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>183</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>82.56</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -5194,13 +5322,13 @@
         <v>1.0503582407335432E-7</v>
       </c>
       <c r="M42" s="1">
-        <v>1.0075E-7</v>
+        <v>1.0775E-7</v>
       </c>
       <c r="N42" s="1">
-        <v>9.1152173363223305E-8</v>
+        <v>9.781613644881577E-8</v>
       </c>
       <c r="O42" s="1">
-        <v>1.11083471494006E-7</v>
+        <v>1.1841911427707242E-7</v>
       </c>
       <c r="P42">
         <v>100</v>
@@ -5215,52 +5343,55 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="U42" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V42" s="1">
+      <c r="V42" s="5">
+        <v>48</v>
+      </c>
+      <c r="W42" s="1">
         <v>3.2548499643964698E-124</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>43613</v>
       </c>
-      <c r="X42" s="4" t="s">
+      <c r="Y42" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>94.22</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>479</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>483</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>92</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>50929</v>
       </c>
-      <c r="AD42" s="4" t="s">
+      <c r="AE42" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>88.99</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>214</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>235</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>82.51</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -5298,13 +5429,13 @@
         <v>1.8245500126865032E-7</v>
       </c>
       <c r="M43" s="1">
-        <v>1.8225000000000001E-7</v>
+        <v>1.7175000000000001E-7</v>
       </c>
       <c r="N43" s="1">
-        <v>1.6925844686416501E-7</v>
+        <v>1.5914524554444689E-7</v>
       </c>
       <c r="O43" s="1">
-        <v>1.9597412899822901E-7</v>
+        <v>1.8508759898345631E-7</v>
       </c>
       <c r="P43">
         <v>100</v>
@@ -5319,52 +5450,55 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>729</v>
+        <v>687</v>
       </c>
       <c r="U43" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V43" s="1">
-        <v>0</v>
-      </c>
-      <c r="W43">
+      <c r="V43" s="5">
+        <v>48</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43">
         <v>43613</v>
       </c>
-      <c r="X43" s="4" t="s">
+      <c r="Y43" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>94.22</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>479</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>483</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>92</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>51228</v>
       </c>
-      <c r="AD43" s="4" t="s">
+      <c r="AE43" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>88.44</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>190</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>204</v>
       </c>
-      <c r="AH43">
+      <c r="AI43">
         <v>82.57</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44" s="4" t="s">
         <v>56</v>
       </c>
@@ -5402,13 +5536,13 @@
         <v>3.4631290245217401E-7</v>
       </c>
       <c r="M44" s="1">
-        <v>3.5199999999999998E-7</v>
+        <v>3.3500000000000002E-7</v>
       </c>
       <c r="N44" s="1">
-        <v>3.33851724457426E-7</v>
+        <v>3.1730122584738861E-7</v>
       </c>
       <c r="O44" s="1">
-        <v>3.7087834250410702E-7</v>
+        <v>3.5342900279794462E-7</v>
       </c>
       <c r="P44">
         <v>100</v>
@@ -5423,52 +5557,55 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>1408</v>
+        <v>1340</v>
       </c>
       <c r="U44" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V44" s="1">
+      <c r="V44" s="5">
+        <v>48</v>
+      </c>
+      <c r="W44" s="1">
         <v>1.8766898476316799E-266</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>43613</v>
       </c>
-      <c r="X44" s="4" t="s">
+      <c r="Y44" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>94.22</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>479</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>483</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>92</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>51418</v>
       </c>
-      <c r="AD44" s="4" t="s">
+      <c r="AE44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>89.3</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>227</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>253</v>
       </c>
-      <c r="AH44">
+      <c r="AI44">
         <v>82.52</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45" s="4" t="s">
         <v>57</v>
       </c>
@@ -5506,13 +5643,13 @@
         <v>1.6447534119897314E-7</v>
       </c>
       <c r="M45" s="1">
-        <v>1.6425000000000001E-7</v>
+        <v>1.4975E-7</v>
       </c>
       <c r="N45" s="1">
-        <v>1.5192882230495399E-7</v>
+        <v>1.3799607212919178E-7</v>
       </c>
       <c r="O45" s="1">
-        <v>1.7730422960475399E-7</v>
+        <v>1.6223742375083126E-7</v>
       </c>
       <c r="P45">
         <v>100</v>
@@ -5527,52 +5664,55 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>657</v>
+        <v>599</v>
       </c>
       <c r="U45" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V45" s="1">
+      <c r="V45" s="5">
+        <v>48</v>
+      </c>
+      <c r="W45" s="1">
         <v>1.3036817761285E-59</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>43613</v>
       </c>
-      <c r="X45" s="4" t="s">
+      <c r="Y45" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>94.22</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>479</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>483</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>92</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>52010</v>
       </c>
-      <c r="AD45" s="4" t="s">
+      <c r="AE45" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>93.2</v>
       </c>
-      <c r="AF45">
+      <c r="AG45">
         <v>422</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>440</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>97.5</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46" s="4" t="s">
         <v>58</v>
       </c>
@@ -5610,13 +5750,13 @@
         <v>7.4510748069200569E-7</v>
       </c>
       <c r="M46" s="1">
-        <v>7.1949999999999995E-7</v>
+        <v>7.3799999999999996E-7</v>
       </c>
       <c r="N46" s="1">
-        <v>6.9345097400666905E-7</v>
+        <v>7.1161516646395896E-7</v>
       </c>
       <c r="O46" s="1">
-        <v>7.4627714967444698E-7</v>
+        <v>7.6511290005549197E-7</v>
       </c>
       <c r="P46">
         <v>100</v>
@@ -5631,52 +5771,55 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>2878</v>
+        <v>2952</v>
       </c>
       <c r="U46" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V46" s="1">
+      <c r="V46" s="5">
+        <v>48</v>
+      </c>
+      <c r="W46" s="1">
         <v>9.4589423240346099E-51</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>43613</v>
       </c>
-      <c r="X46" s="4" t="s">
+      <c r="Y46" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>94.22</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>479</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>483</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>92</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>52010</v>
       </c>
-      <c r="AD46" s="4" t="s">
+      <c r="AE46" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>93.2</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>422</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>440</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>97.5</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47" s="4" t="s">
         <v>59</v>
       </c>
@@ -5714,13 +5857,13 @@
         <v>4.9440265789581441E-7</v>
       </c>
       <c r="M47" s="1">
-        <v>4.735E-7</v>
+        <v>4.8350000000000001E-7</v>
       </c>
       <c r="N47" s="1">
-        <v>4.5241321689722598E-7</v>
+        <v>4.6218920538500444E-7</v>
       </c>
       <c r="O47" s="1">
-        <v>4.9531596008075901E-7</v>
+        <v>5.055399136483095E-7</v>
       </c>
       <c r="P47">
         <v>100</v>
@@ -5735,52 +5878,55 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>1894</v>
+        <v>1934</v>
       </c>
       <c r="U47" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V47" s="1">
+      <c r="V47" s="5">
+        <v>48</v>
+      </c>
+      <c r="W47" s="1">
         <v>2.0401318648859602E-6</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>43613</v>
       </c>
-      <c r="X47" s="4" t="s">
+      <c r="Y47" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>94.22</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>479</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>483</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>92</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>53131</v>
       </c>
-      <c r="AD47" s="4" t="s">
+      <c r="AE47" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>92.42</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>373</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>414</v>
       </c>
-      <c r="AH47">
+      <c r="AI47">
         <v>97.34</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48" s="4" t="s">
         <v>60</v>
       </c>
@@ -5818,13 +5964,13 @@
         <v>3.1119467483957608E-7</v>
       </c>
       <c r="M48" s="1">
-        <v>3.1549999999999999E-7</v>
+        <v>3.1600000000000002E-7</v>
       </c>
       <c r="N48" s="1">
-        <v>2.98331119054041E-7</v>
+        <v>2.9881733069117208E-7</v>
       </c>
       <c r="O48" s="1">
-        <v>3.3339931084247998E-7</v>
+        <v>3.3391309381450238E-7</v>
       </c>
       <c r="P48">
         <v>100</v>
@@ -5839,52 +5985,55 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="U48" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V48" s="1">
+      <c r="V48" s="5">
+        <v>48</v>
+      </c>
+      <c r="W48" s="1">
         <v>2.7892573300396698E-7</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>45121</v>
       </c>
-      <c r="X48" s="4" t="s">
+      <c r="Y48" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>88.54</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>198</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>207</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>51.62</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>45957</v>
       </c>
-      <c r="AD48" s="4" t="s">
+      <c r="AE48" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>102.21</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>406</v>
       </c>
-      <c r="AG48">
+      <c r="AH48">
         <v>1320</v>
       </c>
-      <c r="AH48">
+      <c r="AI48">
         <v>51.34</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49" s="4" t="s">
         <v>61</v>
       </c>
@@ -5922,13 +6071,13 @@
         <v>7.6328772298958188E-5</v>
       </c>
       <c r="M49" s="1">
-        <v>7.7107692307692299E-5</v>
+        <v>7.518461538461538E-5</v>
       </c>
       <c r="N49" s="1">
-        <v>7.5605573837398204E-5</v>
+        <v>7.3701437027772469E-5</v>
       </c>
       <c r="O49" s="1">
-        <v>7.8632146357135994E-5</v>
+        <v>7.6690130359011196E-5</v>
       </c>
       <c r="P49">
         <v>100</v>
@@ -5943,52 +6092,55 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>10024</v>
+        <v>9774</v>
       </c>
       <c r="U49" s="2">
         <v>130000000</v>
       </c>
-      <c r="V49" s="1">
+      <c r="V49" s="5">
+        <v>48</v>
+      </c>
+      <c r="W49" s="1">
         <v>9.3780718724532498E-29</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>32060</v>
       </c>
-      <c r="X49" s="4" t="s">
+      <c r="Y49" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>94.42</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>488</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>493</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>97.39</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>50346</v>
       </c>
-      <c r="AD49" s="4" t="s">
+      <c r="AE49" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>88.48</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>187</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>212</v>
       </c>
-      <c r="AH49">
+      <c r="AI49">
         <v>82.54</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50" s="4" t="s">
         <v>62</v>
       </c>
@@ -6026,13 +6178,13 @@
         <v>3.966101159250234E-7</v>
       </c>
       <c r="M50" s="1">
-        <v>3.8524999999999999E-7</v>
+        <v>3.8949999999999999E-7</v>
       </c>
       <c r="N50" s="1">
-        <v>3.6625289514046502E-7</v>
+        <v>3.7039708330094248E-7</v>
       </c>
       <c r="O50" s="1">
-        <v>4.0497688698140302E-7</v>
+        <v>4.0933266505564933E-7</v>
       </c>
       <c r="P50">
         <v>100</v>
@@ -6047,52 +6199,55 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>1541</v>
+        <v>1558</v>
       </c>
       <c r="U50" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V50" s="1">
+      <c r="V50" s="5">
+        <v>48</v>
+      </c>
+      <c r="W50" s="1">
         <v>1.4608534760920001E-7</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>39574</v>
       </c>
-      <c r="X50" s="4" t="s">
+      <c r="Y50" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>92.51</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>390</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>406</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>64.989999999999995</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>39477</v>
       </c>
-      <c r="AD50" s="4" t="s">
+      <c r="AE50" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>269.54000000000002</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>338</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>14550</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <v>50.79</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51" s="4" t="s">
         <v>63</v>
       </c>
@@ -6130,13 +6285,13 @@
         <v>1.4979617503403965E-5</v>
       </c>
       <c r="M51" s="1">
-        <v>1.48238805970149E-5</v>
+        <v>1.5138805970149254E-5</v>
       </c>
       <c r="N51" s="1">
-        <v>1.45337630535751E-5</v>
+        <v>1.4845607986310248E-5</v>
       </c>
       <c r="O51" s="1">
-        <v>1.5118332516271201E-5</v>
+        <v>1.5436338174288851E-5</v>
       </c>
       <c r="P51">
         <v>100</v>
@@ -6151,52 +6306,55 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>9932</v>
+        <v>10143</v>
       </c>
       <c r="U51" s="2">
         <v>670000000</v>
       </c>
-      <c r="V51" s="1">
+      <c r="V51" s="5">
+        <v>48</v>
+      </c>
+      <c r="W51" s="1">
         <v>2.6675276774444202E-6</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>40376</v>
       </c>
-      <c r="X51" s="4" t="s">
+      <c r="Y51" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>98.4</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>681</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>683</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>98.13</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>54517</v>
       </c>
-      <c r="AD51" s="4" t="s">
+      <c r="AE51" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>99.9</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>667</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>840</v>
       </c>
-      <c r="AH51">
+      <c r="AI51">
         <v>98.7</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52" s="4" t="s">
         <v>64</v>
       </c>
@@ -6234,13 +6392,13 @@
         <v>1.3099446898632536E-6</v>
       </c>
       <c r="M52" s="1">
-        <v>1.342E-6</v>
+        <v>1.29575E-6</v>
       </c>
       <c r="N52" s="1">
-        <v>1.3063373489881599E-6</v>
+        <v>1.2607114003488771E-6</v>
       </c>
       <c r="O52" s="1">
-        <v>1.37838955951438E-6</v>
+        <v>1.3315155670196735E-6</v>
       </c>
       <c r="P52">
         <v>111</v>
@@ -6255,52 +6413,55 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>5368</v>
+        <v>5183</v>
       </c>
       <c r="U52" s="2">
         <v>4000000000</v>
       </c>
-      <c r="V52" s="1">
+      <c r="V52" s="5">
+        <v>48</v>
+      </c>
+      <c r="W52" s="1">
         <v>1.3133228489722101E-6</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>48901</v>
       </c>
-      <c r="X52" s="4" t="s">
+      <c r="Y52" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>94.04</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>467</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>477</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>97.6</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>48903</v>
       </c>
-      <c r="AD52" s="4" t="s">
+      <c r="AE52" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>94.54</v>
       </c>
-      <c r="AF52">
+      <c r="AG52">
         <v>491</v>
       </c>
-      <c r="AG52">
+      <c r="AH52">
         <v>501</v>
       </c>
-      <c r="AH52">
+      <c r="AI52">
         <v>97.61</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -6338,13 +6499,13 @@
         <v>1.1536896628436228E-5</v>
       </c>
       <c r="M53" s="1">
-        <v>1.13275862068966E-5</v>
+        <v>1.1664367816091955E-5</v>
       </c>
       <c r="N53" s="1">
-        <v>1.11050339704906E-5</v>
+        <v>1.143851536931222E-5</v>
       </c>
       <c r="O53" s="1">
-        <v>1.1553476478085201E-5</v>
+        <v>1.1893558131122976E-5</v>
       </c>
       <c r="P53">
         <v>111</v>
@@ -6359,52 +6520,55 @@
         <v>11</v>
       </c>
       <c r="T53">
-        <v>9855</v>
+        <v>10148</v>
       </c>
       <c r="U53" s="2">
         <v>870000000</v>
       </c>
-      <c r="V53" s="1">
+      <c r="V53" s="5">
+        <v>48</v>
+      </c>
+      <c r="W53" s="1">
         <v>1.28416505709793E-5</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>48901</v>
       </c>
-      <c r="X53" s="4" t="s">
+      <c r="Y53" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>94.04</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>467</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>477</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>97.6</v>
       </c>
-      <c r="AC53">
+      <c r="AD53">
         <v>48903</v>
       </c>
-      <c r="AD53" s="4" t="s">
+      <c r="AE53" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>94.54</v>
       </c>
-      <c r="AF53">
+      <c r="AG53">
         <v>491</v>
       </c>
-      <c r="AG53">
+      <c r="AH53">
         <v>501</v>
       </c>
-      <c r="AH53">
+      <c r="AI53">
         <v>97.61</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54" s="4" t="s">
         <v>66</v>
       </c>
@@ -6442,13 +6606,13 @@
         <v>1.0107345950597645E-5</v>
       </c>
       <c r="M54" s="1">
-        <v>1.0150505050505099E-5</v>
+        <v>1.0197979797979798E-5</v>
       </c>
       <c r="N54" s="1">
-        <v>9.9530037078475592E-6</v>
+        <v>1.0000014891731449E-5</v>
       </c>
       <c r="O54" s="1">
-        <v>1.03509397282724E-5</v>
+        <v>1.0398878016148188E-5</v>
       </c>
       <c r="P54">
         <v>111</v>
@@ -6463,48 +6627,51 @@
         <v>11</v>
       </c>
       <c r="T54">
-        <v>10049</v>
+        <v>10096</v>
       </c>
       <c r="U54" s="2">
         <v>990000000</v>
       </c>
-      <c r="V54" s="1">
+      <c r="V54" s="5">
+        <v>48</v>
+      </c>
+      <c r="W54" s="1">
         <v>1.0693912264566999E-5</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>48901</v>
       </c>
-      <c r="X54" s="4" t="s">
+      <c r="Y54" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>94.04</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>467</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>477</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>97.6</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>48903</v>
       </c>
-      <c r="AD54" s="4" t="s">
+      <c r="AE54" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>94.54</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>491</v>
       </c>
-      <c r="AG54">
+      <c r="AH54">
         <v>501</v>
       </c>
-      <c r="AH54">
+      <c r="AI54">
         <v>97.61</v>
       </c>
     </row>
